--- a/Data/Общая таблица МБ.xlsx
+++ b/Data/Общая таблица МБ.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="93">
   <si>
     <t>Индекс коморбидности</t>
   </si>
@@ -464,7 +464,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -684,9 +684,6 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -795,6 +792,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1103,93 +1112,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B118" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="74"/>
-    <col min="2" max="2" width="14.7109375" style="74" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="85" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="74"/>
-    <col min="4" max="4" width="9.140625" style="86"/>
+    <col min="4" max="4" width="9.140625" style="85"/>
     <col min="5" max="5" width="9.140625" style="74"/>
-    <col min="6" max="6" width="9.140625" style="86"/>
+    <col min="6" max="6" width="9.140625" style="85"/>
     <col min="7" max="7" width="12.5703125" style="74" customWidth="1"/>
-    <col min="8" max="10" width="9.140625" style="86"/>
-    <col min="11" max="11" width="14" style="86" customWidth="1"/>
+    <col min="8" max="10" width="9.140625" style="85"/>
+    <col min="11" max="11" width="14" style="85" customWidth="1"/>
     <col min="12" max="12" width="9.140625" style="74"/>
     <col min="13" max="14" width="9.140625" style="55"/>
     <col min="15" max="18" width="9.140625" style="74"/>
     <col min="19" max="19" width="20.42578125" style="74" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="104" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" style="104"/>
+    <col min="20" max="20" width="15.140625" style="103" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="103"/>
     <col min="22" max="22" width="12" style="74" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="108" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="109" t="s">
+      <c r="C1" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="109" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="110" t="s">
+      <c r="D1" s="77"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="108" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87" t="s">
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="98"/>
-      <c r="T1" s="101"/>
-      <c r="U1" s="101"/>
-      <c r="V1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="96"/>
     </row>
     <row r="2" spans="1:23" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="78" t="s">
+      <c r="A2" s="108"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="87" t="s">
+      <c r="E2" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="F2" s="78" t="s">
+      <c r="F2" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="109"/>
-      <c r="H2" s="78" t="s">
+      <c r="G2" s="108"/>
+      <c r="H2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="78" t="s">
+      <c r="I2" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="78" t="s">
+      <c r="J2" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="78" t="s">
+      <c r="K2" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="87" t="s">
+      <c r="L2" s="86" t="s">
         <v>13</v>
       </c>
       <c r="M2" s="54" t="s">
@@ -1198,28 +1207,28 @@
       <c r="N2" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="87" t="s">
+      <c r="O2" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="87" t="s">
+      <c r="P2" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="87" t="s">
+      <c r="Q2" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="87" t="s">
+      <c r="R2" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="99" t="s">
+      <c r="S2" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="102" t="s">
+      <c r="T2" s="101" t="s">
         <v>88</v>
       </c>
-      <c r="U2" s="101" t="s">
+      <c r="U2" s="100" t="s">
         <v>84</v>
       </c>
-      <c r="V2" s="105" t="s">
+      <c r="V2" s="104" t="s">
         <v>87</v>
       </c>
       <c r="W2" s="53" t="s">
@@ -1230,34 +1239,34 @@
       <c r="A3" s="66">
         <v>7237</v>
       </c>
-      <c r="B3" s="72">
+      <c r="B3" s="80">
         <v>4</v>
       </c>
       <c r="C3" s="66">
         <v>65</v>
       </c>
-      <c r="D3" s="79">
+      <c r="D3" s="78">
         <v>71</v>
       </c>
       <c r="E3" s="66">
         <v>43</v>
       </c>
-      <c r="F3" s="79">
+      <c r="F3" s="78">
         <v>2</v>
       </c>
       <c r="G3" s="72">
         <v>82</v>
       </c>
-      <c r="H3" s="85" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" s="90" t="s">
+      <c r="H3" s="84">
+        <v>13.6</v>
+      </c>
+      <c r="I3" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="85" t="s">
+      <c r="J3" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="K3" s="79">
+      <c r="K3" s="78">
         <v>3.3</v>
       </c>
       <c r="L3" s="66">
@@ -1275,22 +1284,22 @@
       <c r="P3" s="66">
         <v>311</v>
       </c>
-      <c r="Q3" s="94">
+      <c r="Q3" s="93">
         <v>1</v>
       </c>
-      <c r="R3" s="97">
+      <c r="R3" s="96">
         <v>62</v>
       </c>
-      <c r="S3" s="97">
+      <c r="S3" s="96">
         <v>126</v>
       </c>
-      <c r="T3" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U3" s="101" t="s">
+      <c r="T3" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U3" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V3" s="97">
+      <c r="V3" s="96">
         <v>2</v>
       </c>
     </row>
@@ -1298,34 +1307,34 @@
       <c r="A4" s="66">
         <v>7985</v>
       </c>
-      <c r="B4" s="72">
+      <c r="B4" s="80">
         <v>7</v>
       </c>
       <c r="C4" s="66">
         <v>79</v>
       </c>
-      <c r="D4" s="79">
+      <c r="D4" s="78">
         <v>77</v>
       </c>
       <c r="E4" s="66">
         <v>47</v>
       </c>
-      <c r="F4" s="79">
+      <c r="F4" s="78">
         <v>2</v>
       </c>
       <c r="G4" s="72">
         <v>86</v>
       </c>
-      <c r="H4" s="79">
+      <c r="H4" s="78">
         <v>12.3</v>
       </c>
-      <c r="I4" s="79">
+      <c r="I4" s="78">
         <v>20.2</v>
       </c>
-      <c r="J4" s="79">
+      <c r="J4" s="78">
         <v>5</v>
       </c>
-      <c r="K4" s="79">
+      <c r="K4" s="78">
         <v>4.4000000000000004</v>
       </c>
       <c r="L4" s="66">
@@ -1343,22 +1352,22 @@
       <c r="P4" s="66">
         <v>286</v>
       </c>
-      <c r="Q4" s="94">
+      <c r="Q4" s="93">
         <v>1</v>
       </c>
-      <c r="R4" s="97">
+      <c r="R4" s="96">
         <v>62</v>
       </c>
-      <c r="S4" s="97">
+      <c r="S4" s="96">
         <v>84</v>
       </c>
-      <c r="T4" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U4" s="101" t="s">
+      <c r="T4" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U4" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V4" s="97">
+      <c r="V4" s="96">
         <v>2</v>
       </c>
     </row>
@@ -1366,7 +1375,7 @@
       <c r="A5" s="67">
         <v>34384</v>
       </c>
-      <c r="B5" s="67">
+      <c r="B5" s="52">
         <v>6</v>
       </c>
       <c r="C5" s="67">
@@ -1411,22 +1420,22 @@
       <c r="P5" s="67">
         <v>430</v>
       </c>
-      <c r="Q5" s="95">
+      <c r="Q5" s="94">
         <v>1</v>
       </c>
-      <c r="R5" s="95">
+      <c r="R5" s="94">
         <v>62</v>
       </c>
-      <c r="S5" s="95">
-        <v>83</v>
-      </c>
-      <c r="T5" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U5" s="101" t="s">
+      <c r="S5" s="94">
+        <v>83</v>
+      </c>
+      <c r="T5" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U5" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V5" s="97">
+      <c r="V5" s="96">
         <v>4</v>
       </c>
     </row>
@@ -1434,7 +1443,7 @@
       <c r="A6" s="67">
         <v>322769</v>
       </c>
-      <c r="B6" s="67">
+      <c r="B6" s="52">
         <v>6</v>
       </c>
       <c r="C6" s="67">
@@ -1464,7 +1473,7 @@
       <c r="K6" s="52">
         <v>5.0999999999999996</v>
       </c>
-      <c r="L6" s="89">
+      <c r="L6" s="88">
         <v>275</v>
       </c>
       <c r="M6" s="59">
@@ -1479,22 +1488,22 @@
       <c r="P6" s="67">
         <v>456</v>
       </c>
-      <c r="Q6" s="95">
+      <c r="Q6" s="94">
         <v>1</v>
       </c>
-      <c r="R6" s="95">
+      <c r="R6" s="94">
         <v>62</v>
       </c>
-      <c r="S6" s="95">
+      <c r="S6" s="94">
         <v>33</v>
       </c>
-      <c r="T6" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U6" s="101" t="s">
+      <c r="T6" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U6" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V6" s="97">
+      <c r="V6" s="96">
         <v>1</v>
       </c>
     </row>
@@ -1502,34 +1511,34 @@
       <c r="A7" s="66">
         <v>7232</v>
       </c>
-      <c r="B7" s="72">
+      <c r="B7" s="80">
         <v>4</v>
       </c>
       <c r="C7" s="66">
         <v>65</v>
       </c>
-      <c r="D7" s="79">
+      <c r="D7" s="78">
         <v>72</v>
       </c>
       <c r="E7" s="66">
         <v>42</v>
       </c>
-      <c r="F7" s="79">
+      <c r="F7" s="78">
         <v>1.9</v>
       </c>
       <c r="G7" s="72">
         <v>83</v>
       </c>
-      <c r="H7" s="85" t="s">
+      <c r="H7" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="I7" s="90" t="s">
+      <c r="I7" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="85" t="s">
+      <c r="J7" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="K7" s="79">
+      <c r="K7" s="78">
         <v>3.3</v>
       </c>
       <c r="L7" s="66">
@@ -1547,22 +1556,22 @@
       <c r="P7" s="66">
         <v>316</v>
       </c>
-      <c r="Q7" s="94">
+      <c r="Q7" s="93">
         <v>1</v>
       </c>
-      <c r="R7" s="97">
+      <c r="R7" s="96">
         <v>62</v>
       </c>
-      <c r="S7" s="97">
+      <c r="S7" s="96">
         <v>122</v>
       </c>
-      <c r="T7" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U7" s="101" t="s">
+      <c r="T7" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U7" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V7" s="97">
+      <c r="V7" s="96">
         <v>2</v>
       </c>
     </row>
@@ -1570,34 +1579,34 @@
       <c r="A8" s="66">
         <v>7988</v>
       </c>
-      <c r="B8" s="72">
+      <c r="B8" s="80">
         <v>6</v>
       </c>
       <c r="C8" s="66">
         <v>79</v>
       </c>
-      <c r="D8" s="79">
+      <c r="D8" s="78">
         <v>78</v>
       </c>
       <c r="E8" s="66">
         <v>46</v>
       </c>
-      <c r="F8" s="79">
+      <c r="F8" s="78">
         <v>1.8</v>
       </c>
       <c r="G8" s="72">
         <v>88</v>
       </c>
-      <c r="H8" s="79">
+      <c r="H8" s="78">
         <v>12.3</v>
       </c>
-      <c r="I8" s="79">
+      <c r="I8" s="78">
         <v>20.2</v>
       </c>
-      <c r="J8" s="79">
+      <c r="J8" s="78">
         <v>5</v>
       </c>
-      <c r="K8" s="79">
+      <c r="K8" s="78">
         <v>4.4000000000000004</v>
       </c>
       <c r="L8" s="66">
@@ -1615,22 +1624,22 @@
       <c r="P8" s="66">
         <v>211</v>
       </c>
-      <c r="Q8" s="94">
+      <c r="Q8" s="93">
         <v>1</v>
       </c>
-      <c r="R8" s="97">
+      <c r="R8" s="96">
         <v>62</v>
       </c>
-      <c r="S8" s="97">
+      <c r="S8" s="96">
         <v>85</v>
       </c>
-      <c r="T8" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U8" s="101" t="s">
+      <c r="T8" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U8" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V8" s="97">
+      <c r="V8" s="96">
         <v>2</v>
       </c>
     </row>
@@ -1638,7 +1647,7 @@
       <c r="A9" s="67">
         <v>34387</v>
       </c>
-      <c r="B9" s="67">
+      <c r="B9" s="52">
         <v>5</v>
       </c>
       <c r="C9" s="67">
@@ -1683,22 +1692,22 @@
       <c r="P9" s="67">
         <v>332</v>
       </c>
-      <c r="Q9" s="95">
+      <c r="Q9" s="94">
         <v>1</v>
       </c>
-      <c r="R9" s="95">
+      <c r="R9" s="94">
         <v>62</v>
       </c>
-      <c r="S9" s="95">
+      <c r="S9" s="94">
         <v>84</v>
       </c>
-      <c r="T9" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U9" s="101" t="s">
+      <c r="T9" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U9" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V9" s="97">
+      <c r="V9" s="96">
         <v>2</v>
       </c>
     </row>
@@ -1706,7 +1715,7 @@
       <c r="A10" s="67">
         <v>322767</v>
       </c>
-      <c r="B10" s="67">
+      <c r="B10" s="52">
         <v>6</v>
       </c>
       <c r="C10" s="67">
@@ -1736,7 +1745,7 @@
       <c r="K10" s="52">
         <v>5.0999999999999996</v>
       </c>
-      <c r="L10" s="89">
+      <c r="L10" s="88">
         <v>168</v>
       </c>
       <c r="M10" s="59">
@@ -1751,22 +1760,22 @@
       <c r="P10" s="67">
         <v>431</v>
       </c>
-      <c r="Q10" s="95">
+      <c r="Q10" s="94">
         <v>1</v>
       </c>
-      <c r="R10" s="95">
+      <c r="R10" s="94">
         <v>62</v>
       </c>
-      <c r="S10" s="95">
+      <c r="S10" s="94">
         <v>34</v>
       </c>
-      <c r="T10" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U10" s="101" t="s">
+      <c r="T10" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U10" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V10" s="97">
+      <c r="V10" s="96">
         <v>1</v>
       </c>
     </row>
@@ -1774,7 +1783,7 @@
       <c r="A11" s="67">
         <v>322777</v>
       </c>
-      <c r="B11" s="67">
+      <c r="B11" s="52">
         <v>5</v>
       </c>
       <c r="C11" s="67">
@@ -1804,7 +1813,7 @@
       <c r="K11" s="52">
         <v>5.0999999999999996</v>
       </c>
-      <c r="L11" s="89">
+      <c r="L11" s="88">
         <v>275</v>
       </c>
       <c r="M11" s="59">
@@ -1819,22 +1828,22 @@
       <c r="P11" s="67">
         <v>452</v>
       </c>
-      <c r="Q11" s="95">
+      <c r="Q11" s="94">
         <v>1</v>
       </c>
-      <c r="R11" s="95">
+      <c r="R11" s="94">
         <v>62</v>
       </c>
-      <c r="S11" s="95">
+      <c r="S11" s="94">
         <v>33</v>
       </c>
-      <c r="T11" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U11" s="101" t="s">
+      <c r="T11" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U11" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V11" s="97">
+      <c r="V11" s="96">
         <v>1</v>
       </c>
     </row>
@@ -1842,34 +1851,34 @@
       <c r="A12" s="66">
         <v>723252</v>
       </c>
-      <c r="B12" s="72">
+      <c r="B12" s="80">
         <v>4</v>
       </c>
       <c r="C12" s="66">
         <v>64</v>
       </c>
-      <c r="D12" s="79">
+      <c r="D12" s="78">
         <v>74</v>
       </c>
       <c r="E12" s="66">
         <v>42</v>
       </c>
-      <c r="F12" s="79">
+      <c r="F12" s="78">
         <v>1.8</v>
       </c>
       <c r="G12" s="72">
         <v>83</v>
       </c>
-      <c r="H12" s="85" t="s">
+      <c r="H12" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="I12" s="90" t="s">
+      <c r="I12" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="J12" s="85" t="s">
+      <c r="J12" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="K12" s="79">
+      <c r="K12" s="78">
         <v>3.3</v>
       </c>
       <c r="L12" s="66">
@@ -1887,22 +1896,22 @@
       <c r="P12" s="66">
         <v>300</v>
       </c>
-      <c r="Q12" s="94">
+      <c r="Q12" s="93">
         <v>1</v>
       </c>
-      <c r="R12" s="97">
+      <c r="R12" s="96">
         <v>62</v>
       </c>
-      <c r="S12" s="97">
+      <c r="S12" s="96">
         <v>118</v>
       </c>
-      <c r="T12" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U12" s="101" t="s">
+      <c r="T12" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U12" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V12" s="97">
+      <c r="V12" s="96">
         <v>3</v>
       </c>
     </row>
@@ -1910,34 +1919,34 @@
       <c r="A13" s="66">
         <v>72371</v>
       </c>
-      <c r="B13" s="72">
+      <c r="B13" s="80">
         <v>4</v>
       </c>
       <c r="C13" s="66">
         <v>65</v>
       </c>
-      <c r="D13" s="79">
+      <c r="D13" s="78">
         <v>71</v>
       </c>
       <c r="E13" s="66">
         <v>43</v>
       </c>
-      <c r="F13" s="79">
+      <c r="F13" s="78">
         <v>2</v>
       </c>
       <c r="G13" s="72">
         <v>82</v>
       </c>
-      <c r="H13" s="85" t="s">
+      <c r="H13" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="I13" s="90" t="s">
+      <c r="I13" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="J13" s="85" t="s">
+      <c r="J13" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="K13" s="79">
+      <c r="K13" s="78">
         <v>3.3</v>
       </c>
       <c r="L13" s="66">
@@ -1955,22 +1964,22 @@
       <c r="P13" s="66">
         <v>311</v>
       </c>
-      <c r="Q13" s="94">
+      <c r="Q13" s="93">
         <v>1</v>
       </c>
-      <c r="R13" s="97">
+      <c r="R13" s="96">
         <v>62</v>
       </c>
-      <c r="S13" s="97">
+      <c r="S13" s="96">
         <v>121</v>
       </c>
-      <c r="T13" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U13" s="101" t="s">
+      <c r="T13" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U13" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V13" s="97">
+      <c r="V13" s="96">
         <v>3</v>
       </c>
     </row>
@@ -1978,34 +1987,34 @@
       <c r="A14" s="66">
         <v>79851</v>
       </c>
-      <c r="B14" s="72">
+      <c r="B14" s="80">
         <v>7</v>
       </c>
       <c r="C14" s="66">
         <v>79</v>
       </c>
-      <c r="D14" s="79">
+      <c r="D14" s="78">
         <v>77</v>
       </c>
       <c r="E14" s="66">
         <v>47</v>
       </c>
-      <c r="F14" s="79">
+      <c r="F14" s="78">
         <v>2</v>
       </c>
       <c r="G14" s="72">
         <v>86</v>
       </c>
-      <c r="H14" s="79">
+      <c r="H14" s="78">
         <v>12.3</v>
       </c>
-      <c r="I14" s="79">
+      <c r="I14" s="78">
         <v>20.2</v>
       </c>
-      <c r="J14" s="79">
+      <c r="J14" s="78">
         <v>5</v>
       </c>
-      <c r="K14" s="79">
+      <c r="K14" s="78">
         <v>4.4000000000000004</v>
       </c>
       <c r="L14" s="66">
@@ -2023,22 +2032,22 @@
       <c r="P14" s="66">
         <v>286</v>
       </c>
-      <c r="Q14" s="94">
+      <c r="Q14" s="93">
         <v>1</v>
       </c>
-      <c r="R14" s="97">
+      <c r="R14" s="96">
         <v>62</v>
       </c>
-      <c r="S14" s="97">
+      <c r="S14" s="96">
         <v>86</v>
       </c>
-      <c r="T14" s="102" t="s">
-        <v>83</v>
-      </c>
-      <c r="U14" s="101" t="s">
+      <c r="T14" s="101" t="s">
+        <v>83</v>
+      </c>
+      <c r="U14" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V14" s="97">
+      <c r="V14" s="96">
         <v>2</v>
       </c>
     </row>
@@ -2046,7 +2055,7 @@
       <c r="A15" s="67">
         <v>343841</v>
       </c>
-      <c r="B15" s="67">
+      <c r="B15" s="52">
         <v>6</v>
       </c>
       <c r="C15" s="67">
@@ -2091,22 +2100,22 @@
       <c r="P15" s="67">
         <v>430</v>
       </c>
-      <c r="Q15" s="95">
+      <c r="Q15" s="94">
         <v>1</v>
       </c>
-      <c r="R15" s="95">
+      <c r="R15" s="94">
         <v>62</v>
       </c>
-      <c r="S15" s="95">
+      <c r="S15" s="94">
         <v>84</v>
       </c>
-      <c r="T15" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U15" s="101" t="s">
+      <c r="T15" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U15" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V15" s="97">
+      <c r="V15" s="96">
         <v>2</v>
       </c>
     </row>
@@ -2114,7 +2123,7 @@
       <c r="A16" s="67">
         <v>3227691</v>
       </c>
-      <c r="B16" s="67">
+      <c r="B16" s="52">
         <v>6</v>
       </c>
       <c r="C16" s="67">
@@ -2144,7 +2153,7 @@
       <c r="K16" s="52">
         <v>5.0999999999999996</v>
       </c>
-      <c r="L16" s="89">
+      <c r="L16" s="88">
         <v>275</v>
       </c>
       <c r="M16" s="59">
@@ -2159,22 +2168,22 @@
       <c r="P16" s="67">
         <v>456</v>
       </c>
-      <c r="Q16" s="95">
+      <c r="Q16" s="94">
         <v>1</v>
       </c>
-      <c r="R16" s="95">
+      <c r="R16" s="94">
         <v>62</v>
       </c>
-      <c r="S16" s="95">
+      <c r="S16" s="94">
         <v>35</v>
       </c>
-      <c r="T16" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U16" s="101" t="s">
+      <c r="T16" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U16" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V16" s="97">
+      <c r="V16" s="96">
         <v>2</v>
       </c>
     </row>
@@ -2182,34 +2191,34 @@
       <c r="A17" s="68">
         <v>36077</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="117">
         <v>2</v>
       </c>
       <c r="C17" s="68">
         <v>51</v>
       </c>
-      <c r="D17" s="80">
+      <c r="D17" s="79">
         <v>74</v>
       </c>
       <c r="E17" s="68">
         <v>45</v>
       </c>
-      <c r="F17" s="80">
+      <c r="F17" s="79">
         <v>2.1</v>
       </c>
       <c r="G17" s="75">
         <v>93</v>
       </c>
-      <c r="H17" s="80">
+      <c r="H17" s="79">
         <v>12.7</v>
       </c>
-      <c r="I17" s="80">
+      <c r="I17" s="79">
         <v>26.7</v>
       </c>
-      <c r="J17" s="80">
+      <c r="J17" s="79">
         <v>13.2</v>
       </c>
-      <c r="K17" s="80">
+      <c r="K17" s="79">
         <v>11.2</v>
       </c>
       <c r="L17" s="68">
@@ -2227,22 +2236,22 @@
       <c r="P17" s="68">
         <v>259</v>
       </c>
-      <c r="Q17" s="96">
+      <c r="Q17" s="95">
         <v>1</v>
       </c>
-      <c r="R17" s="96">
+      <c r="R17" s="95">
         <v>62</v>
       </c>
-      <c r="S17" s="100">
+      <c r="S17" s="99">
         <v>67</v>
       </c>
-      <c r="T17" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U17" s="101" t="s">
+      <c r="T17" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U17" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V17" s="97">
+      <c r="V17" s="96">
         <v>2</v>
       </c>
     </row>
@@ -2250,34 +2259,34 @@
       <c r="A18" s="68">
         <v>11680</v>
       </c>
-      <c r="B18" s="72">
+      <c r="B18" s="80">
         <v>4</v>
       </c>
       <c r="C18" s="68">
         <v>52</v>
       </c>
-      <c r="D18" s="80">
+      <c r="D18" s="79">
         <v>73</v>
       </c>
       <c r="E18" s="68">
         <v>20</v>
       </c>
-      <c r="F18" s="80">
+      <c r="F18" s="79">
         <v>5.0999999999999996</v>
       </c>
       <c r="G18" s="75">
         <v>61</v>
       </c>
-      <c r="H18" s="80">
+      <c r="H18" s="79">
         <v>32</v>
       </c>
-      <c r="I18" s="80">
+      <c r="I18" s="79">
         <v>31</v>
       </c>
-      <c r="J18" s="80">
+      <c r="J18" s="79">
         <v>10</v>
       </c>
-      <c r="K18" s="80">
+      <c r="K18" s="79">
         <v>4.9000000000000004</v>
       </c>
       <c r="L18" s="68">
@@ -2295,22 +2304,22 @@
       <c r="P18" s="66">
         <v>358</v>
       </c>
-      <c r="Q18" s="93">
+      <c r="Q18" s="92">
         <v>2</v>
       </c>
       <c r="R18" s="73">
         <v>44</v>
       </c>
-      <c r="S18" s="100">
+      <c r="S18" s="99">
         <v>49</v>
       </c>
-      <c r="T18" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U18" s="101" t="s">
+      <c r="T18" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U18" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V18" s="97">
+      <c r="V18" s="96">
         <v>3</v>
       </c>
     </row>
@@ -2318,34 +2327,34 @@
       <c r="A19" s="68">
         <v>271233</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="117">
         <v>7</v>
       </c>
       <c r="C19" s="68">
         <v>64</v>
       </c>
-      <c r="D19" s="80">
+      <c r="D19" s="79">
         <v>106</v>
       </c>
       <c r="E19" s="68">
         <v>35</v>
       </c>
-      <c r="F19" s="80">
+      <c r="F19" s="79">
         <v>5.5</v>
       </c>
       <c r="G19" s="66">
         <v>62</v>
       </c>
-      <c r="H19" s="79">
+      <c r="H19" s="78">
         <v>12</v>
       </c>
-      <c r="I19" s="79">
+      <c r="I19" s="78">
         <v>8</v>
       </c>
-      <c r="J19" s="79">
+      <c r="J19" s="78">
         <v>3.8</v>
       </c>
-      <c r="K19" s="80">
+      <c r="K19" s="79">
         <v>2.9</v>
       </c>
       <c r="L19" s="68">
@@ -2369,16 +2378,16 @@
       <c r="R19" s="66">
         <v>44</v>
       </c>
-      <c r="S19" s="100">
+      <c r="S19" s="99">
         <v>23</v>
       </c>
-      <c r="T19" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U19" s="101" t="s">
+      <c r="T19" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U19" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V19" s="97">
+      <c r="V19" s="96">
         <v>1</v>
       </c>
     </row>
@@ -2386,34 +2395,34 @@
       <c r="A20" s="66">
         <v>13059</v>
       </c>
-      <c r="B20" s="72">
+      <c r="B20" s="80">
         <v>3</v>
       </c>
       <c r="C20" s="66">
         <v>56</v>
       </c>
-      <c r="D20" s="79">
+      <c r="D20" s="78">
         <v>74</v>
       </c>
       <c r="E20" s="66">
         <v>30</v>
       </c>
-      <c r="F20" s="79">
+      <c r="F20" s="78">
         <v>5</v>
       </c>
       <c r="G20" s="66">
         <v>64</v>
       </c>
-      <c r="H20" s="79">
+      <c r="H20" s="78">
         <v>18.7</v>
       </c>
-      <c r="I20" s="79">
+      <c r="I20" s="78">
         <v>27.5</v>
       </c>
-      <c r="J20" s="79" t="s">
+      <c r="J20" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="K20" s="79">
+      <c r="K20" s="78">
         <v>4.9000000000000004</v>
       </c>
       <c r="L20" s="66">
@@ -2437,16 +2446,16 @@
       <c r="R20" s="73">
         <v>44</v>
       </c>
-      <c r="S20" s="97">
+      <c r="S20" s="96">
         <v>55</v>
       </c>
-      <c r="T20" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U20" s="101" t="s">
+      <c r="T20" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U20" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V20" s="97">
+      <c r="V20" s="96">
         <v>1</v>
       </c>
     </row>
@@ -2454,7 +2463,7 @@
       <c r="A21" s="67">
         <v>184177</v>
       </c>
-      <c r="B21" s="67">
+      <c r="B21" s="52">
         <v>2</v>
       </c>
       <c r="C21" s="67">
@@ -2505,16 +2514,16 @@
       <c r="R21" s="67">
         <v>44</v>
       </c>
-      <c r="S21" s="95">
+      <c r="S21" s="94">
         <v>53</v>
       </c>
-      <c r="T21" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U21" s="101" t="s">
+      <c r="T21" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U21" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V21" s="97">
+      <c r="V21" s="96">
         <v>3</v>
       </c>
     </row>
@@ -2522,7 +2531,7 @@
       <c r="A22" s="67">
         <v>245813</v>
       </c>
-      <c r="B22" s="67">
+      <c r="B22" s="52">
         <v>4</v>
       </c>
       <c r="C22" s="67">
@@ -2573,16 +2582,16 @@
       <c r="R22" s="67">
         <v>44</v>
       </c>
-      <c r="S22" s="95">
+      <c r="S22" s="94">
         <v>48</v>
       </c>
-      <c r="T22" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U22" s="101" t="s">
+      <c r="T22" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U22" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V22" s="97">
+      <c r="V22" s="96">
         <v>3</v>
       </c>
     </row>
@@ -2590,7 +2599,7 @@
       <c r="A23" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="67">
+      <c r="B23" s="52">
         <v>4</v>
       </c>
       <c r="C23" s="67">
@@ -2620,7 +2629,7 @@
       <c r="K23" s="52">
         <v>4.8</v>
       </c>
-      <c r="L23" s="89">
+      <c r="L23" s="88">
         <v>137</v>
       </c>
       <c r="M23" s="59">
@@ -2641,16 +2650,16 @@
       <c r="R23" s="67">
         <v>44</v>
       </c>
-      <c r="S23" s="95">
+      <c r="S23" s="94">
         <v>46</v>
       </c>
-      <c r="T23" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U23" s="101" t="s">
+      <c r="T23" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U23" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V23" s="95">
+      <c r="V23" s="94">
         <v>3</v>
       </c>
     </row>
@@ -2658,34 +2667,34 @@
       <c r="A24" s="68">
         <v>2712</v>
       </c>
-      <c r="B24" s="75">
+      <c r="B24" s="117">
         <v>6</v>
       </c>
       <c r="C24" s="68">
         <v>64</v>
       </c>
-      <c r="D24" s="80">
+      <c r="D24" s="79">
         <v>106</v>
       </c>
       <c r="E24" s="68">
         <v>35</v>
       </c>
-      <c r="F24" s="80">
+      <c r="F24" s="79">
         <v>5.5</v>
       </c>
       <c r="G24" s="66">
         <v>55</v>
       </c>
-      <c r="H24" s="79">
+      <c r="H24" s="78">
         <v>12</v>
       </c>
-      <c r="I24" s="79">
+      <c r="I24" s="78">
         <v>8</v>
       </c>
-      <c r="J24" s="79">
+      <c r="J24" s="78">
         <v>3.8</v>
       </c>
-      <c r="K24" s="80">
+      <c r="K24" s="79">
         <v>2.9</v>
       </c>
       <c r="L24" s="68">
@@ -2709,16 +2718,16 @@
       <c r="R24" s="66">
         <v>44</v>
       </c>
-      <c r="S24" s="100">
+      <c r="S24" s="99">
         <v>24</v>
       </c>
-      <c r="T24" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U24" s="101" t="s">
+      <c r="T24" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U24" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V24" s="100">
+      <c r="V24" s="99">
         <v>1</v>
       </c>
     </row>
@@ -2726,34 +2735,34 @@
       <c r="A25" s="66">
         <v>1305</v>
       </c>
-      <c r="B25" s="72">
+      <c r="B25" s="80">
         <v>5</v>
       </c>
       <c r="C25" s="66">
         <v>56</v>
       </c>
-      <c r="D25" s="79">
+      <c r="D25" s="78">
         <v>74</v>
       </c>
       <c r="E25" s="66">
         <v>30</v>
       </c>
-      <c r="F25" s="79">
+      <c r="F25" s="78">
         <v>5</v>
       </c>
       <c r="G25" s="66">
         <v>62</v>
       </c>
-      <c r="H25" s="79">
+      <c r="H25" s="78">
         <v>18.7</v>
       </c>
-      <c r="I25" s="79">
+      <c r="I25" s="78">
         <v>27.5</v>
       </c>
-      <c r="J25" s="79" t="s">
+      <c r="J25" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="K25" s="79">
+      <c r="K25" s="78">
         <v>4.9000000000000004</v>
       </c>
       <c r="L25" s="66">
@@ -2777,16 +2786,16 @@
       <c r="R25" s="73">
         <v>44</v>
       </c>
-      <c r="S25" s="97">
+      <c r="S25" s="96">
         <v>35</v>
       </c>
-      <c r="T25" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U25" s="101" t="s">
+      <c r="T25" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U25" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V25" s="97">
+      <c r="V25" s="96">
         <v>1</v>
       </c>
     </row>
@@ -2794,7 +2803,7 @@
       <c r="A26" s="67">
         <v>1841</v>
       </c>
-      <c r="B26" s="67">
+      <c r="B26" s="52">
         <v>2</v>
       </c>
       <c r="C26" s="67">
@@ -2845,16 +2854,16 @@
       <c r="R26" s="67">
         <v>44</v>
       </c>
-      <c r="S26" s="95">
+      <c r="S26" s="94">
         <v>53</v>
       </c>
-      <c r="T26" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U26" s="101" t="s">
+      <c r="T26" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U26" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V26" s="95">
+      <c r="V26" s="94">
         <v>3</v>
       </c>
     </row>
@@ -2862,7 +2871,7 @@
       <c r="A27" s="67">
         <v>2458</v>
       </c>
-      <c r="B27" s="67">
+      <c r="B27" s="52">
         <v>6</v>
       </c>
       <c r="C27" s="67">
@@ -2913,16 +2922,16 @@
       <c r="R27" s="67">
         <v>44</v>
       </c>
-      <c r="S27" s="95">
+      <c r="S27" s="94">
         <v>35</v>
       </c>
-      <c r="T27" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U27" s="101" t="s">
+      <c r="T27" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U27" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V27" s="95">
+      <c r="V27" s="94">
         <v>3</v>
       </c>
     </row>
@@ -2930,34 +2939,34 @@
       <c r="A28" s="68">
         <v>116801</v>
       </c>
-      <c r="B28" s="72">
+      <c r="B28" s="80">
         <v>4</v>
       </c>
       <c r="C28" s="68">
         <v>52</v>
       </c>
-      <c r="D28" s="80">
+      <c r="D28" s="79">
         <v>73</v>
       </c>
       <c r="E28" s="68">
         <v>20</v>
       </c>
-      <c r="F28" s="80">
+      <c r="F28" s="79">
         <v>5.0999999999999996</v>
       </c>
       <c r="G28" s="75">
         <v>61</v>
       </c>
-      <c r="H28" s="80">
+      <c r="H28" s="79">
         <v>32</v>
       </c>
-      <c r="I28" s="80">
+      <c r="I28" s="79">
         <v>31</v>
       </c>
-      <c r="J28" s="80">
+      <c r="J28" s="79">
         <v>10</v>
       </c>
-      <c r="K28" s="80">
+      <c r="K28" s="79">
         <v>4.9000000000000004</v>
       </c>
       <c r="L28" s="68">
@@ -2975,22 +2984,22 @@
       <c r="P28" s="66">
         <v>358</v>
       </c>
-      <c r="Q28" s="93">
+      <c r="Q28" s="92">
         <v>2</v>
       </c>
       <c r="R28" s="73">
         <v>44</v>
       </c>
-      <c r="S28" s="100">
+      <c r="S28" s="99">
         <v>49</v>
       </c>
-      <c r="T28" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U28" s="101" t="s">
+      <c r="T28" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U28" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V28" s="95">
+      <c r="V28" s="94">
         <v>3</v>
       </c>
     </row>
@@ -2998,34 +3007,34 @@
       <c r="A29" s="68">
         <v>2712331</v>
       </c>
-      <c r="B29" s="75">
+      <c r="B29" s="117">
         <v>5</v>
       </c>
       <c r="C29" s="68">
         <v>64</v>
       </c>
-      <c r="D29" s="80">
+      <c r="D29" s="79">
         <v>106</v>
       </c>
       <c r="E29" s="68">
         <v>35</v>
       </c>
-      <c r="F29" s="80">
+      <c r="F29" s="79">
         <v>5.5</v>
       </c>
       <c r="G29" s="66">
         <v>64</v>
       </c>
-      <c r="H29" s="79">
+      <c r="H29" s="78">
         <v>12</v>
       </c>
-      <c r="I29" s="79">
+      <c r="I29" s="78">
         <v>8</v>
       </c>
-      <c r="J29" s="79">
+      <c r="J29" s="78">
         <v>3.8</v>
       </c>
-      <c r="K29" s="80">
+      <c r="K29" s="79">
         <v>2.9</v>
       </c>
       <c r="L29" s="68">
@@ -3049,16 +3058,16 @@
       <c r="R29" s="66">
         <v>44</v>
       </c>
-      <c r="S29" s="100">
+      <c r="S29" s="99">
         <v>24</v>
       </c>
-      <c r="T29" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U29" s="101" t="s">
+      <c r="T29" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U29" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V29" s="95">
+      <c r="V29" s="94">
         <v>1</v>
       </c>
     </row>
@@ -3066,34 +3075,34 @@
       <c r="A30" s="66">
         <v>130591</v>
       </c>
-      <c r="B30" s="72">
+      <c r="B30" s="80">
         <v>3</v>
       </c>
       <c r="C30" s="66">
         <v>56</v>
       </c>
-      <c r="D30" s="79">
+      <c r="D30" s="78">
         <v>74</v>
       </c>
       <c r="E30" s="66">
         <v>30</v>
       </c>
-      <c r="F30" s="79">
+      <c r="F30" s="78">
         <v>5</v>
       </c>
       <c r="G30" s="66">
         <v>64</v>
       </c>
-      <c r="H30" s="79">
+      <c r="H30" s="78">
         <v>18.7</v>
       </c>
-      <c r="I30" s="79">
+      <c r="I30" s="78">
         <v>27.5</v>
       </c>
-      <c r="J30" s="79" t="s">
+      <c r="J30" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="K30" s="79">
+      <c r="K30" s="78">
         <v>4.9000000000000004</v>
       </c>
       <c r="L30" s="66">
@@ -3117,16 +3126,16 @@
       <c r="R30" s="73">
         <v>44</v>
       </c>
-      <c r="S30" s="97">
+      <c r="S30" s="96">
         <v>35</v>
       </c>
-      <c r="T30" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U30" s="101" t="s">
+      <c r="T30" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U30" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V30" s="95">
+      <c r="V30" s="94">
         <v>1</v>
       </c>
     </row>
@@ -3134,7 +3143,7 @@
       <c r="A31" s="67">
         <v>1841771</v>
       </c>
-      <c r="B31" s="67">
+      <c r="B31" s="52">
         <v>2</v>
       </c>
       <c r="C31" s="67">
@@ -3185,16 +3194,16 @@
       <c r="R31" s="67">
         <v>44</v>
       </c>
-      <c r="S31" s="95">
+      <c r="S31" s="94">
         <v>53</v>
       </c>
-      <c r="T31" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U31" s="101" t="s">
+      <c r="T31" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U31" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V31" s="95">
+      <c r="V31" s="94">
         <v>3</v>
       </c>
     </row>
@@ -3202,7 +3211,7 @@
       <c r="A32" s="67">
         <v>2458131</v>
       </c>
-      <c r="B32" s="67">
+      <c r="B32" s="52">
         <v>5</v>
       </c>
       <c r="C32" s="67">
@@ -3253,16 +3262,16 @@
       <c r="R32" s="67">
         <v>44</v>
       </c>
-      <c r="S32" s="95">
+      <c r="S32" s="94">
         <v>35</v>
       </c>
-      <c r="T32" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U32" s="101" t="s">
+      <c r="T32" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U32" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V32" s="95">
+      <c r="V32" s="94">
         <v>3</v>
       </c>
     </row>
@@ -3270,7 +3279,7 @@
       <c r="A33" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="B33" s="67">
+      <c r="B33" s="52">
         <v>6</v>
       </c>
       <c r="C33" s="67">
@@ -3300,7 +3309,7 @@
       <c r="K33" s="52">
         <v>4.8</v>
       </c>
-      <c r="L33" s="89">
+      <c r="L33" s="88">
         <v>137</v>
       </c>
       <c r="M33" s="59">
@@ -3321,16 +3330,16 @@
       <c r="R33" s="67">
         <v>44</v>
       </c>
-      <c r="S33" s="95">
+      <c r="S33" s="94">
         <v>46</v>
       </c>
-      <c r="T33" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U33" s="101" t="s">
+      <c r="T33" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U33" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V33" s="95">
+      <c r="V33" s="94">
         <v>2</v>
       </c>
     </row>
@@ -3338,7 +3347,7 @@
       <c r="A34" s="66">
         <v>288129</v>
       </c>
-      <c r="B34" s="67">
+      <c r="B34" s="52">
         <v>3</v>
       </c>
       <c r="C34" s="67">
@@ -3389,16 +3398,16 @@
       <c r="R34" s="67">
         <v>44</v>
       </c>
-      <c r="S34" s="95">
+      <c r="S34" s="94">
         <v>37</v>
       </c>
-      <c r="T34" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U34" s="101" t="s">
+      <c r="T34" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U34" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V34" s="95">
+      <c r="V34" s="94">
         <v>2</v>
       </c>
     </row>
@@ -3406,7 +3415,7 @@
       <c r="A35" s="66">
         <v>210749</v>
       </c>
-      <c r="B35" s="67">
+      <c r="B35" s="52">
         <v>4</v>
       </c>
       <c r="C35" s="67">
@@ -3457,16 +3466,16 @@
       <c r="R35" s="67">
         <v>44</v>
       </c>
-      <c r="S35" s="95">
+      <c r="S35" s="94">
         <v>60</v>
       </c>
-      <c r="T35" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U35" s="101" t="s">
+      <c r="T35" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U35" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V35" s="95">
+      <c r="V35" s="94">
         <v>3</v>
       </c>
     </row>
@@ -3474,34 +3483,34 @@
       <c r="A36" s="68">
         <v>7162</v>
       </c>
-      <c r="B36" s="72">
+      <c r="B36" s="80">
         <v>5</v>
       </c>
       <c r="C36" s="68">
         <v>81</v>
       </c>
-      <c r="D36" s="80">
+      <c r="D36" s="79">
         <v>94</v>
       </c>
       <c r="E36" s="68">
         <v>27</v>
       </c>
-      <c r="F36" s="80">
+      <c r="F36" s="79">
         <v>7.3</v>
       </c>
       <c r="G36" s="75">
         <v>50</v>
       </c>
-      <c r="H36" s="80">
+      <c r="H36" s="79">
         <v>15.1</v>
       </c>
-      <c r="I36" s="80">
+      <c r="I36" s="79">
         <v>24.4</v>
       </c>
-      <c r="J36" s="80">
+      <c r="J36" s="79">
         <v>16.100000000000001</v>
       </c>
-      <c r="K36" s="80">
+      <c r="K36" s="79">
         <v>10.1</v>
       </c>
       <c r="L36" s="68">
@@ -3525,16 +3534,16 @@
       <c r="R36" s="66">
         <v>29</v>
       </c>
-      <c r="S36" s="100">
+      <c r="S36" s="99">
         <v>29</v>
       </c>
-      <c r="T36" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U36" s="101" t="s">
+      <c r="T36" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U36" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V36" s="97">
+      <c r="V36" s="96">
         <v>1</v>
       </c>
     </row>
@@ -3542,34 +3551,34 @@
       <c r="A37" s="68">
         <v>208425</v>
       </c>
-      <c r="B37" s="75">
+      <c r="B37" s="117">
         <v>7</v>
       </c>
       <c r="C37" s="68">
         <v>71</v>
       </c>
-      <c r="D37" s="80">
+      <c r="D37" s="79">
         <v>104</v>
       </c>
       <c r="E37" s="68">
         <v>32</v>
       </c>
-      <c r="F37" s="80">
+      <c r="F37" s="79">
         <v>8.1</v>
       </c>
       <c r="G37" s="66">
         <v>52</v>
       </c>
-      <c r="H37" s="79">
+      <c r="H37" s="78">
         <v>18.100000000000001</v>
       </c>
-      <c r="I37" s="79">
+      <c r="I37" s="78">
         <v>17.2</v>
       </c>
-      <c r="J37" s="91">
+      <c r="J37" s="90">
         <v>37.200000000000003</v>
       </c>
-      <c r="K37" s="79">
+      <c r="K37" s="78">
         <v>30.6</v>
       </c>
       <c r="L37" s="68">
@@ -3593,16 +3602,16 @@
       <c r="R37" s="66">
         <v>29</v>
       </c>
-      <c r="S37" s="100">
+      <c r="S37" s="99">
         <v>11</v>
       </c>
-      <c r="T37" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U37" s="101" t="s">
+      <c r="T37" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U37" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V37" s="100">
+      <c r="V37" s="99">
         <v>1</v>
       </c>
     </row>
@@ -3610,7 +3619,7 @@
       <c r="A38" s="67">
         <v>381426</v>
       </c>
-      <c r="B38" s="67">
+      <c r="B38" s="52">
         <v>5</v>
       </c>
       <c r="C38" s="67">
@@ -3661,16 +3670,16 @@
       <c r="R38" s="67">
         <v>29</v>
       </c>
-      <c r="S38" s="95">
+      <c r="S38" s="94">
         <v>15</v>
       </c>
-      <c r="T38" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U38" s="101" t="s">
+      <c r="T38" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U38" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V38" s="97">
+      <c r="V38" s="96">
         <v>2</v>
       </c>
     </row>
@@ -3678,7 +3687,7 @@
       <c r="A39" s="67">
         <v>6231</v>
       </c>
-      <c r="B39" s="67">
+      <c r="B39" s="52">
         <v>6</v>
       </c>
       <c r="C39" s="67">
@@ -3723,22 +3732,22 @@
       <c r="P39" s="67">
         <v>456</v>
       </c>
-      <c r="Q39" s="93">
+      <c r="Q39" s="92">
         <v>3</v>
       </c>
       <c r="R39" s="67">
         <v>29</v>
       </c>
-      <c r="S39" s="95">
+      <c r="S39" s="94">
         <v>30</v>
       </c>
-      <c r="T39" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U39" s="101" t="s">
+      <c r="T39" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U39" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V39" s="97">
+      <c r="V39" s="96">
         <v>1</v>
       </c>
     </row>
@@ -3746,34 +3755,34 @@
       <c r="A40" s="66">
         <v>426421</v>
       </c>
-      <c r="B40" s="72">
+      <c r="B40" s="80">
         <v>8</v>
       </c>
       <c r="C40" s="72">
         <v>80</v>
       </c>
-      <c r="D40" s="81">
+      <c r="D40" s="80">
         <v>127</v>
       </c>
       <c r="E40" s="72">
         <v>25</v>
       </c>
-      <c r="F40" s="81">
+      <c r="F40" s="80">
         <v>8.9</v>
       </c>
       <c r="G40" s="72">
         <v>59</v>
       </c>
-      <c r="H40" s="79">
+      <c r="H40" s="78">
         <v>27</v>
       </c>
-      <c r="I40" s="79">
+      <c r="I40" s="78">
         <v>32</v>
       </c>
-      <c r="J40" s="79">
+      <c r="J40" s="78">
         <v>12.7</v>
       </c>
-      <c r="K40" s="79">
+      <c r="K40" s="78">
         <v>3.3</v>
       </c>
       <c r="L40" s="72">
@@ -3797,16 +3806,16 @@
       <c r="R40" s="66">
         <v>29</v>
       </c>
-      <c r="S40" s="97">
+      <c r="S40" s="96">
         <v>4</v>
       </c>
-      <c r="T40" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U40" s="101" t="s">
+      <c r="T40" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U40" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V40" s="97">
+      <c r="V40" s="96">
         <v>1</v>
       </c>
     </row>
@@ -3814,34 +3823,34 @@
       <c r="A41" s="66">
         <v>80944</v>
       </c>
-      <c r="B41" s="72">
+      <c r="B41" s="80">
         <v>6</v>
       </c>
       <c r="C41" s="66">
         <v>66</v>
       </c>
-      <c r="D41" s="79">
+      <c r="D41" s="78">
         <v>69</v>
       </c>
       <c r="E41" s="66">
         <v>35</v>
       </c>
-      <c r="F41" s="79">
+      <c r="F41" s="78">
         <v>12</v>
       </c>
       <c r="G41" s="66">
         <v>61</v>
       </c>
-      <c r="H41" s="79">
+      <c r="H41" s="78">
         <v>11</v>
       </c>
-      <c r="I41" s="79">
+      <c r="I41" s="78">
         <v>14</v>
       </c>
-      <c r="J41" s="79">
+      <c r="J41" s="78">
         <v>14</v>
       </c>
-      <c r="K41" s="79">
+      <c r="K41" s="78">
         <v>10</v>
       </c>
       <c r="L41" s="66">
@@ -3865,16 +3874,16 @@
       <c r="R41" s="66">
         <v>29</v>
       </c>
-      <c r="S41" s="97">
+      <c r="S41" s="96">
         <v>65</v>
       </c>
-      <c r="T41" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U41" s="101" t="s">
+      <c r="T41" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U41" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V41" s="97">
+      <c r="V41" s="96">
         <v>2</v>
       </c>
     </row>
@@ -3882,34 +3891,34 @@
       <c r="A42" s="68">
         <v>4556</v>
       </c>
-      <c r="B42" s="75">
+      <c r="B42" s="117">
         <v>6</v>
       </c>
       <c r="C42" s="68">
         <v>65</v>
       </c>
-      <c r="D42" s="80">
+      <c r="D42" s="79">
         <v>95</v>
       </c>
       <c r="E42" s="68">
         <v>32</v>
       </c>
-      <c r="F42" s="80">
+      <c r="F42" s="79">
         <v>13.7</v>
       </c>
       <c r="G42" s="66">
         <v>57</v>
       </c>
-      <c r="H42" s="80">
+      <c r="H42" s="79">
         <v>13.2</v>
       </c>
-      <c r="I42" s="80">
+      <c r="I42" s="79">
         <v>43.3</v>
       </c>
-      <c r="J42" s="79">
+      <c r="J42" s="78">
         <v>29.6</v>
       </c>
-      <c r="K42" s="80">
+      <c r="K42" s="79">
         <v>18.7</v>
       </c>
       <c r="L42" s="68">
@@ -3933,16 +3942,16 @@
       <c r="R42" s="66">
         <v>29</v>
       </c>
-      <c r="S42" s="100">
+      <c r="S42" s="99">
         <v>21</v>
       </c>
-      <c r="T42" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U42" s="101" t="s">
+      <c r="T42" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U42" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V42" s="97">
+      <c r="V42" s="96">
         <v>1</v>
       </c>
     </row>
@@ -3950,7 +3959,7 @@
       <c r="A43" s="67">
         <v>14399</v>
       </c>
-      <c r="B43" s="67">
+      <c r="B43" s="52">
         <v>5</v>
       </c>
       <c r="C43" s="67">
@@ -4001,16 +4010,16 @@
       <c r="R43" s="67">
         <v>29</v>
       </c>
-      <c r="S43" s="95">
+      <c r="S43" s="94">
         <v>43</v>
       </c>
-      <c r="T43" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U43" s="101" t="s">
+      <c r="T43" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U43" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V43" s="97">
+      <c r="V43" s="96">
         <v>3</v>
       </c>
     </row>
@@ -4018,34 +4027,34 @@
       <c r="A44" s="66">
         <v>391512</v>
       </c>
-      <c r="B44" s="72">
+      <c r="B44" s="80">
         <v>6</v>
       </c>
       <c r="C44" s="66">
         <v>67</v>
       </c>
-      <c r="D44" s="79">
+      <c r="D44" s="78">
         <v>89</v>
       </c>
       <c r="E44" s="66">
         <v>22</v>
       </c>
-      <c r="F44" s="79">
+      <c r="F44" s="78">
         <v>19</v>
       </c>
       <c r="G44" s="66">
         <v>11</v>
       </c>
-      <c r="H44" s="79">
+      <c r="H44" s="78">
         <v>8.1999999999999993</v>
       </c>
-      <c r="I44" s="79">
+      <c r="I44" s="78">
         <v>8.6999999999999993</v>
       </c>
-      <c r="J44" s="79">
+      <c r="J44" s="78">
         <v>13</v>
       </c>
-      <c r="K44" s="79">
+      <c r="K44" s="78">
         <v>11</v>
       </c>
       <c r="L44" s="73">
@@ -4069,16 +4078,16 @@
       <c r="R44" s="73">
         <v>29</v>
       </c>
-      <c r="S44" s="97">
+      <c r="S44" s="96">
         <v>5</v>
       </c>
-      <c r="T44" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U44" s="101" t="s">
+      <c r="T44" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U44" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V44" s="97">
+      <c r="V44" s="96">
         <v>1</v>
       </c>
     </row>
@@ -4086,34 +4095,34 @@
       <c r="A45" s="66">
         <v>29359</v>
       </c>
-      <c r="B45" s="72">
+      <c r="B45" s="80">
         <v>6</v>
       </c>
       <c r="C45" s="66">
         <v>68</v>
       </c>
-      <c r="D45" s="79">
+      <c r="D45" s="78">
         <v>58</v>
       </c>
       <c r="E45" s="66">
         <v>18</v>
       </c>
-      <c r="F45" s="79">
+      <c r="F45" s="78">
         <v>20.6</v>
       </c>
       <c r="G45" s="66">
         <v>17</v>
       </c>
-      <c r="H45" s="79">
+      <c r="H45" s="78">
         <v>13</v>
       </c>
-      <c r="I45" s="79" t="s">
+      <c r="I45" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="J45" s="79" t="s">
+      <c r="J45" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="K45" s="79">
+      <c r="K45" s="78">
         <v>6</v>
       </c>
       <c r="L45" s="73">
@@ -4137,16 +4146,16 @@
       <c r="R45" s="66">
         <v>29</v>
       </c>
-      <c r="S45" s="97">
+      <c r="S45" s="96">
         <v>17</v>
       </c>
-      <c r="T45" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U45" s="101" t="s">
+      <c r="T45" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U45" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V45" s="100">
+      <c r="V45" s="99">
         <v>1</v>
       </c>
     </row>
@@ -4154,34 +4163,34 @@
       <c r="A46" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="B46" s="66">
+      <c r="B46" s="78">
         <v>4</v>
       </c>
       <c r="C46" s="66">
         <v>63</v>
       </c>
-      <c r="D46" s="79">
+      <c r="D46" s="78">
         <v>100</v>
       </c>
       <c r="E46" s="66">
         <v>19</v>
       </c>
-      <c r="F46" s="79">
+      <c r="F46" s="78">
         <v>7</v>
       </c>
       <c r="G46" s="66">
         <v>75</v>
       </c>
-      <c r="H46" s="79">
+      <c r="H46" s="78">
         <v>17.7</v>
       </c>
-      <c r="I46" s="79">
+      <c r="I46" s="78">
         <v>12.9</v>
       </c>
-      <c r="J46" s="79">
+      <c r="J46" s="78">
         <v>20.8</v>
       </c>
-      <c r="K46" s="79">
+      <c r="K46" s="78">
         <v>18</v>
       </c>
       <c r="L46" s="73">
@@ -4205,16 +4214,16 @@
       <c r="R46" s="66">
         <v>29</v>
       </c>
-      <c r="S46" s="97">
+      <c r="S46" s="96">
         <v>44</v>
       </c>
-      <c r="T46" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U46" s="101" t="s">
+      <c r="T46" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U46" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V46" s="97">
+      <c r="V46" s="96">
         <v>1</v>
       </c>
     </row>
@@ -4222,7 +4231,7 @@
       <c r="A47" s="67">
         <v>30987</v>
       </c>
-      <c r="B47" s="67">
+      <c r="B47" s="52">
         <v>7</v>
       </c>
       <c r="C47" s="67">
@@ -4252,7 +4261,7 @@
       <c r="K47" s="52">
         <v>6.2</v>
       </c>
-      <c r="L47" s="89">
+      <c r="L47" s="88">
         <v>170</v>
       </c>
       <c r="M47" s="59">
@@ -4273,16 +4282,16 @@
       <c r="R47" s="67">
         <v>29</v>
       </c>
-      <c r="S47" s="95">
+      <c r="S47" s="94">
         <v>28</v>
       </c>
-      <c r="T47" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U47" s="101" t="s">
+      <c r="T47" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U47" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V47" s="97">
+      <c r="V47" s="96">
         <v>2</v>
       </c>
     </row>
@@ -4290,34 +4299,34 @@
       <c r="A48" s="66">
         <v>426421</v>
       </c>
-      <c r="B48" s="72">
+      <c r="B48" s="80">
         <v>7</v>
       </c>
       <c r="C48" s="72">
         <v>80</v>
       </c>
-      <c r="D48" s="81">
+      <c r="D48" s="80">
         <v>117</v>
       </c>
       <c r="E48" s="72">
         <v>25</v>
       </c>
-      <c r="F48" s="81">
+      <c r="F48" s="80">
         <v>9.9</v>
       </c>
       <c r="G48" s="72">
         <v>62</v>
       </c>
-      <c r="H48" s="79">
+      <c r="H48" s="78">
         <v>27</v>
       </c>
-      <c r="I48" s="79">
+      <c r="I48" s="78">
         <v>32</v>
       </c>
-      <c r="J48" s="79">
+      <c r="J48" s="78">
         <v>12.7</v>
       </c>
-      <c r="K48" s="79">
+      <c r="K48" s="78">
         <v>3.3</v>
       </c>
       <c r="L48" s="72">
@@ -4341,16 +4350,16 @@
       <c r="R48" s="66">
         <v>29</v>
       </c>
-      <c r="S48" s="97">
+      <c r="S48" s="96">
         <v>4</v>
       </c>
-      <c r="T48" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U48" s="101" t="s">
+      <c r="T48" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U48" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V48" s="97">
+      <c r="V48" s="96">
         <v>1</v>
       </c>
     </row>
@@ -4358,34 +4367,34 @@
       <c r="A49" s="66">
         <v>80944</v>
       </c>
-      <c r="B49" s="72">
+      <c r="B49" s="80">
         <v>5</v>
       </c>
       <c r="C49" s="66">
         <v>66</v>
       </c>
-      <c r="D49" s="79">
+      <c r="D49" s="78">
         <v>68</v>
       </c>
       <c r="E49" s="66">
         <v>35</v>
       </c>
-      <c r="F49" s="79">
+      <c r="F49" s="78">
         <v>11</v>
       </c>
       <c r="G49" s="66">
         <v>74</v>
       </c>
-      <c r="H49" s="79">
+      <c r="H49" s="78">
         <v>11</v>
       </c>
-      <c r="I49" s="79">
+      <c r="I49" s="78">
         <v>14</v>
       </c>
-      <c r="J49" s="79">
+      <c r="J49" s="78">
         <v>14</v>
       </c>
-      <c r="K49" s="79">
+      <c r="K49" s="78">
         <v>10</v>
       </c>
       <c r="L49" s="66">
@@ -4409,16 +4418,16 @@
       <c r="R49" s="66">
         <v>29</v>
       </c>
-      <c r="S49" s="97">
+      <c r="S49" s="96">
         <v>65</v>
       </c>
-      <c r="T49" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U49" s="101" t="s">
+      <c r="T49" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U49" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V49" s="97">
+      <c r="V49" s="96">
         <v>3</v>
       </c>
     </row>
@@ -4426,7 +4435,7 @@
       <c r="A50" s="67">
         <v>14399</v>
       </c>
-      <c r="B50" s="67">
+      <c r="B50" s="52">
         <v>5</v>
       </c>
       <c r="C50" s="67">
@@ -4477,16 +4486,16 @@
       <c r="R50" s="67">
         <v>29</v>
       </c>
-      <c r="S50" s="95">
+      <c r="S50" s="94">
         <v>43</v>
       </c>
-      <c r="T50" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U50" s="101" t="s">
+      <c r="T50" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U50" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V50" s="95">
+      <c r="V50" s="94">
         <v>2</v>
       </c>
     </row>
@@ -4494,34 +4503,34 @@
       <c r="A51" s="66">
         <v>391512</v>
       </c>
-      <c r="B51" s="72">
+      <c r="B51" s="80">
         <v>7</v>
       </c>
       <c r="C51" s="66">
         <v>68</v>
       </c>
-      <c r="D51" s="79">
+      <c r="D51" s="78">
         <v>90</v>
       </c>
       <c r="E51" s="66">
         <v>22</v>
       </c>
-      <c r="F51" s="79">
+      <c r="F51" s="78">
         <v>19</v>
       </c>
       <c r="G51" s="66">
         <v>32</v>
       </c>
-      <c r="H51" s="79">
+      <c r="H51" s="78">
         <v>8</v>
       </c>
-      <c r="I51" s="79">
+      <c r="I51" s="78">
         <v>8.1999999999999993</v>
       </c>
-      <c r="J51" s="79">
+      <c r="J51" s="78">
         <v>13</v>
       </c>
-      <c r="K51" s="79">
+      <c r="K51" s="78">
         <v>11</v>
       </c>
       <c r="L51" s="73">
@@ -4545,16 +4554,16 @@
       <c r="R51" s="73">
         <v>29</v>
       </c>
-      <c r="S51" s="97">
+      <c r="S51" s="96">
         <v>12</v>
       </c>
-      <c r="T51" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U51" s="101" t="s">
+      <c r="T51" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U51" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V51" s="97">
+      <c r="V51" s="96">
         <v>1</v>
       </c>
     </row>
@@ -4562,34 +4571,34 @@
       <c r="A52" s="68">
         <v>45944</v>
       </c>
-      <c r="B52" s="75">
+      <c r="B52" s="117">
         <v>6</v>
       </c>
       <c r="C52" s="66">
         <v>78</v>
       </c>
-      <c r="D52" s="79">
+      <c r="D52" s="78">
         <v>90</v>
       </c>
       <c r="E52" s="66">
         <v>43</v>
       </c>
-      <c r="F52" s="79">
+      <c r="F52" s="78">
         <v>8.1</v>
       </c>
       <c r="G52" s="66">
         <v>23</v>
       </c>
-      <c r="H52" s="80">
+      <c r="H52" s="79">
         <v>11.5</v>
       </c>
-      <c r="I52" s="80">
+      <c r="I52" s="79">
         <v>12.1</v>
       </c>
-      <c r="J52" s="80">
+      <c r="J52" s="79">
         <v>8.3000000000000007</v>
       </c>
-      <c r="K52" s="80">
+      <c r="K52" s="79">
         <v>7</v>
       </c>
       <c r="L52" s="68">
@@ -4613,16 +4622,16 @@
       <c r="R52" s="68">
         <v>29</v>
       </c>
-      <c r="S52" s="100">
+      <c r="S52" s="99">
         <v>58</v>
       </c>
-      <c r="T52" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U52" s="101" t="s">
+      <c r="T52" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U52" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V52" s="97">
+      <c r="V52" s="96">
         <v>2</v>
       </c>
     </row>
@@ -4630,34 +4639,34 @@
       <c r="A53" s="68">
         <v>212546</v>
       </c>
-      <c r="B53" s="75">
+      <c r="B53" s="117">
         <v>6</v>
       </c>
       <c r="C53" s="66">
         <v>69</v>
       </c>
-      <c r="D53" s="79">
+      <c r="D53" s="78">
         <v>143</v>
       </c>
       <c r="E53" s="66">
         <v>30</v>
       </c>
-      <c r="F53" s="79">
+      <c r="F53" s="78">
         <v>16.3</v>
       </c>
       <c r="G53" s="66">
         <v>56</v>
       </c>
-      <c r="H53" s="80">
+      <c r="H53" s="79">
         <v>7.4</v>
       </c>
-      <c r="I53" s="80">
+      <c r="I53" s="79">
         <v>11.8</v>
       </c>
-      <c r="J53" s="80">
+      <c r="J53" s="79">
         <v>5.5</v>
       </c>
-      <c r="K53" s="80">
+      <c r="K53" s="79">
         <v>3.9</v>
       </c>
       <c r="L53" s="68">
@@ -4681,16 +4690,16 @@
       <c r="R53" s="68">
         <v>29</v>
       </c>
-      <c r="S53" s="100">
+      <c r="S53" s="99">
         <v>46</v>
       </c>
-      <c r="T53" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U53" s="101" t="s">
+      <c r="T53" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U53" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V53" s="97">
+      <c r="V53" s="96">
         <v>2</v>
       </c>
     </row>
@@ -4698,34 +4707,34 @@
       <c r="A54" s="68">
         <v>71621</v>
       </c>
-      <c r="B54" s="72">
+      <c r="B54" s="80">
         <v>6</v>
       </c>
       <c r="C54" s="68">
         <v>81</v>
       </c>
-      <c r="D54" s="80">
+      <c r="D54" s="79">
         <v>94</v>
       </c>
       <c r="E54" s="68">
         <v>27</v>
       </c>
-      <c r="F54" s="80">
+      <c r="F54" s="79">
         <v>7.3</v>
       </c>
       <c r="G54" s="75">
         <v>50</v>
       </c>
-      <c r="H54" s="80">
+      <c r="H54" s="79">
         <v>15.1</v>
       </c>
-      <c r="I54" s="80">
+      <c r="I54" s="79">
         <v>24.4</v>
       </c>
-      <c r="J54" s="80">
+      <c r="J54" s="79">
         <v>16.100000000000001</v>
       </c>
-      <c r="K54" s="80">
+      <c r="K54" s="79">
         <v>10.1</v>
       </c>
       <c r="L54" s="68">
@@ -4749,16 +4758,16 @@
       <c r="R54" s="66">
         <v>29</v>
       </c>
-      <c r="S54" s="100">
+      <c r="S54" s="99">
         <v>29</v>
       </c>
-      <c r="T54" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U54" s="101" t="s">
+      <c r="T54" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U54" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V54" s="100">
+      <c r="V54" s="99">
         <v>1</v>
       </c>
     </row>
@@ -4766,34 +4775,34 @@
       <c r="A55" s="68">
         <v>2084251</v>
       </c>
-      <c r="B55" s="75">
+      <c r="B55" s="117">
         <v>6</v>
       </c>
       <c r="C55" s="68">
         <v>71</v>
       </c>
-      <c r="D55" s="80">
+      <c r="D55" s="79">
         <v>104</v>
       </c>
       <c r="E55" s="68">
         <v>32</v>
       </c>
-      <c r="F55" s="80">
+      <c r="F55" s="79">
         <v>8.1</v>
       </c>
       <c r="G55" s="66">
         <v>52</v>
       </c>
-      <c r="H55" s="79">
+      <c r="H55" s="78">
         <v>18.100000000000001</v>
       </c>
-      <c r="I55" s="79">
+      <c r="I55" s="78">
         <v>17.2</v>
       </c>
-      <c r="J55" s="91">
+      <c r="J55" s="90">
         <v>37.200000000000003</v>
       </c>
-      <c r="K55" s="79">
+      <c r="K55" s="78">
         <v>30.6</v>
       </c>
       <c r="L55" s="68">
@@ -4817,16 +4826,16 @@
       <c r="R55" s="66">
         <v>29</v>
       </c>
-      <c r="S55" s="100">
+      <c r="S55" s="99">
         <v>11</v>
       </c>
-      <c r="T55" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U55" s="101" t="s">
+      <c r="T55" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U55" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V55" s="100">
+      <c r="V55" s="99">
         <v>1</v>
       </c>
     </row>
@@ -4834,7 +4843,7 @@
       <c r="A56" s="67">
         <v>3814261</v>
       </c>
-      <c r="B56" s="67">
+      <c r="B56" s="52">
         <v>4</v>
       </c>
       <c r="C56" s="67">
@@ -4885,16 +4894,16 @@
       <c r="R56" s="67">
         <v>29</v>
       </c>
-      <c r="S56" s="95">
+      <c r="S56" s="94">
         <v>15</v>
       </c>
-      <c r="T56" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U56" s="101" t="s">
+      <c r="T56" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U56" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V56" s="95">
+      <c r="V56" s="94">
         <v>1</v>
       </c>
     </row>
@@ -4902,7 +4911,7 @@
       <c r="A57" s="67">
         <v>62311</v>
       </c>
-      <c r="B57" s="67">
+      <c r="B57" s="52">
         <v>6</v>
       </c>
       <c r="C57" s="67">
@@ -4947,22 +4956,22 @@
       <c r="P57" s="67">
         <v>456</v>
       </c>
-      <c r="Q57" s="93">
+      <c r="Q57" s="92">
         <v>3</v>
       </c>
       <c r="R57" s="67">
         <v>29</v>
       </c>
-      <c r="S57" s="95">
+      <c r="S57" s="94">
         <v>30</v>
       </c>
-      <c r="T57" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U57" s="101" t="s">
+      <c r="T57" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U57" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V57" s="97">
+      <c r="V57" s="96">
         <v>1</v>
       </c>
     </row>
@@ -4970,34 +4979,34 @@
       <c r="A58" s="66">
         <v>4264211</v>
       </c>
-      <c r="B58" s="72">
+      <c r="B58" s="80">
         <v>8</v>
       </c>
       <c r="C58" s="72">
         <v>80</v>
       </c>
-      <c r="D58" s="81">
+      <c r="D58" s="80">
         <v>127</v>
       </c>
       <c r="E58" s="72">
         <v>25</v>
       </c>
-      <c r="F58" s="81">
+      <c r="F58" s="80">
         <v>8.9</v>
       </c>
       <c r="G58" s="72">
         <v>59</v>
       </c>
-      <c r="H58" s="79">
+      <c r="H58" s="78">
         <v>27</v>
       </c>
-      <c r="I58" s="79">
+      <c r="I58" s="78">
         <v>32</v>
       </c>
-      <c r="J58" s="79">
+      <c r="J58" s="78">
         <v>12.7</v>
       </c>
-      <c r="K58" s="79">
+      <c r="K58" s="78">
         <v>3.3</v>
       </c>
       <c r="L58" s="72">
@@ -5021,16 +5030,16 @@
       <c r="R58" s="66">
         <v>29</v>
       </c>
-      <c r="S58" s="97">
+      <c r="S58" s="96">
         <v>4</v>
       </c>
-      <c r="T58" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U58" s="101" t="s">
+      <c r="T58" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U58" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V58" s="97">
+      <c r="V58" s="96">
         <v>1</v>
       </c>
     </row>
@@ -5038,34 +5047,34 @@
       <c r="A59" s="66">
         <v>809441</v>
       </c>
-      <c r="B59" s="72">
+      <c r="B59" s="80">
         <v>6</v>
       </c>
       <c r="C59" s="66">
         <v>66</v>
       </c>
-      <c r="D59" s="79">
+      <c r="D59" s="78">
         <v>69</v>
       </c>
       <c r="E59" s="66">
         <v>35</v>
       </c>
-      <c r="F59" s="79">
+      <c r="F59" s="78">
         <v>12</v>
       </c>
       <c r="G59" s="66">
         <v>74</v>
       </c>
-      <c r="H59" s="79">
+      <c r="H59" s="78">
         <v>11</v>
       </c>
-      <c r="I59" s="79">
+      <c r="I59" s="78">
         <v>14</v>
       </c>
-      <c r="J59" s="79" t="s">
+      <c r="J59" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="K59" s="79" t="s">
+      <c r="K59" s="78" t="s">
         <v>63</v>
       </c>
       <c r="L59" s="66">
@@ -5089,16 +5098,16 @@
       <c r="R59" s="66">
         <v>29</v>
       </c>
-      <c r="S59" s="97">
+      <c r="S59" s="96">
         <v>65</v>
       </c>
-      <c r="T59" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U59" s="101" t="s">
+      <c r="T59" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U59" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V59" s="97">
+      <c r="V59" s="96">
         <v>2</v>
       </c>
     </row>
@@ -5106,34 +5115,34 @@
       <c r="A60" s="68">
         <v>45561</v>
       </c>
-      <c r="B60" s="75">
+      <c r="B60" s="117">
         <v>4</v>
       </c>
       <c r="C60" s="68">
         <v>65</v>
       </c>
-      <c r="D60" s="80">
+      <c r="D60" s="79">
         <v>95</v>
       </c>
       <c r="E60" s="68">
         <v>32</v>
       </c>
-      <c r="F60" s="80">
+      <c r="F60" s="79">
         <v>13.7</v>
       </c>
       <c r="G60" s="66">
         <v>57</v>
       </c>
-      <c r="H60" s="80">
+      <c r="H60" s="79">
         <v>13.2</v>
       </c>
-      <c r="I60" s="80">
+      <c r="I60" s="79">
         <v>43.3</v>
       </c>
-      <c r="J60" s="79">
+      <c r="J60" s="78">
         <v>29.6</v>
       </c>
-      <c r="K60" s="80">
+      <c r="K60" s="79">
         <v>18.7</v>
       </c>
       <c r="L60" s="68">
@@ -5157,16 +5166,16 @@
       <c r="R60" s="66">
         <v>29</v>
       </c>
-      <c r="S60" s="100">
+      <c r="S60" s="99">
         <v>21</v>
       </c>
-      <c r="T60" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U60" s="101" t="s">
+      <c r="T60" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U60" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V60" s="100">
+      <c r="V60" s="99">
         <v>1</v>
       </c>
     </row>
@@ -5174,7 +5183,7 @@
       <c r="A61" s="67">
         <v>143991</v>
       </c>
-      <c r="B61" s="67">
+      <c r="B61" s="52">
         <v>5</v>
       </c>
       <c r="C61" s="67">
@@ -5225,16 +5234,16 @@
       <c r="R61" s="67">
         <v>29</v>
       </c>
-      <c r="S61" s="95">
+      <c r="S61" s="94">
         <v>43</v>
       </c>
-      <c r="T61" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U61" s="101" t="s">
+      <c r="T61" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U61" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V61" s="95">
+      <c r="V61" s="94">
         <v>2</v>
       </c>
     </row>
@@ -5242,34 +5251,34 @@
       <c r="A62" s="66">
         <v>3915121</v>
       </c>
-      <c r="B62" s="72">
+      <c r="B62" s="80">
         <v>6</v>
       </c>
       <c r="C62" s="66">
         <v>67</v>
       </c>
-      <c r="D62" s="79">
+      <c r="D62" s="78">
         <v>89</v>
       </c>
       <c r="E62" s="66">
         <v>22</v>
       </c>
-      <c r="F62" s="79">
+      <c r="F62" s="78">
         <v>19</v>
       </c>
       <c r="G62" s="66">
         <v>11</v>
       </c>
-      <c r="H62" s="79" t="s">
+      <c r="H62" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="I62" s="79" t="s">
+      <c r="I62" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="J62" s="79" t="s">
+      <c r="J62" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="K62" s="79" t="s">
+      <c r="K62" s="78" t="s">
         <v>76</v>
       </c>
       <c r="L62" s="73">
@@ -5293,16 +5302,16 @@
       <c r="R62" s="73">
         <v>29</v>
       </c>
-      <c r="S62" s="97">
+      <c r="S62" s="96">
         <v>4</v>
       </c>
-      <c r="T62" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U62" s="101" t="s">
+      <c r="T62" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U62" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V62" s="97">
+      <c r="V62" s="96">
         <v>1</v>
       </c>
     </row>
@@ -5310,34 +5319,34 @@
       <c r="A63" s="66">
         <v>293591</v>
       </c>
-      <c r="B63" s="72">
+      <c r="B63" s="80">
         <v>6</v>
       </c>
       <c r="C63" s="66">
         <v>68</v>
       </c>
-      <c r="D63" s="79">
+      <c r="D63" s="78">
         <v>58</v>
       </c>
       <c r="E63" s="66">
         <v>18</v>
       </c>
-      <c r="F63" s="79">
+      <c r="F63" s="78">
         <v>20.6</v>
       </c>
       <c r="G63" s="66">
         <v>17</v>
       </c>
-      <c r="H63" s="79">
+      <c r="H63" s="78">
         <v>13</v>
       </c>
-      <c r="I63" s="79" t="s">
+      <c r="I63" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="J63" s="79" t="s">
+      <c r="J63" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="K63" s="79" t="s">
+      <c r="K63" s="78" t="s">
         <v>77</v>
       </c>
       <c r="L63" s="73">
@@ -5361,16 +5370,16 @@
       <c r="R63" s="66">
         <v>29</v>
       </c>
-      <c r="S63" s="97">
+      <c r="S63" s="96">
         <v>17</v>
       </c>
-      <c r="T63" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U63" s="101" t="s">
+      <c r="T63" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U63" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V63" s="100">
+      <c r="V63" s="99">
         <v>1</v>
       </c>
     </row>
@@ -5378,34 +5387,34 @@
       <c r="A64" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="B64" s="66">
+      <c r="B64" s="78">
         <v>4</v>
       </c>
       <c r="C64" s="66">
         <v>63</v>
       </c>
-      <c r="D64" s="79">
+      <c r="D64" s="78">
         <v>100</v>
       </c>
       <c r="E64" s="66">
         <v>19</v>
       </c>
-      <c r="F64" s="79">
+      <c r="F64" s="78">
         <v>7</v>
       </c>
       <c r="G64" s="66">
         <v>65</v>
       </c>
-      <c r="H64" s="79">
+      <c r="H64" s="78">
         <v>17.7</v>
       </c>
-      <c r="I64" s="79">
+      <c r="I64" s="78">
         <v>12.9</v>
       </c>
-      <c r="J64" s="79">
+      <c r="J64" s="78">
         <v>20.8</v>
       </c>
-      <c r="K64" s="79">
+      <c r="K64" s="78">
         <v>18.100000000000001</v>
       </c>
       <c r="L64" s="73">
@@ -5429,16 +5438,16 @@
       <c r="R64" s="66">
         <v>29</v>
       </c>
-      <c r="S64" s="97">
+      <c r="S64" s="96">
         <v>10</v>
       </c>
-      <c r="T64" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U64" s="101" t="s">
+      <c r="T64" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U64" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V64" s="100">
+      <c r="V64" s="99">
         <v>1</v>
       </c>
     </row>
@@ -5446,7 +5455,7 @@
       <c r="A65" s="67">
         <v>309871</v>
       </c>
-      <c r="B65" s="67">
+      <c r="B65" s="52">
         <v>7</v>
       </c>
       <c r="C65" s="67">
@@ -5476,7 +5485,7 @@
       <c r="K65" s="52">
         <v>6.2</v>
       </c>
-      <c r="L65" s="89">
+      <c r="L65" s="88">
         <v>170</v>
       </c>
       <c r="M65" s="59">
@@ -5497,16 +5506,16 @@
       <c r="R65" s="67">
         <v>29</v>
       </c>
-      <c r="S65" s="95">
+      <c r="S65" s="94">
         <v>28</v>
       </c>
-      <c r="T65" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U65" s="101" t="s">
+      <c r="T65" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U65" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="V65" s="95">
+      <c r="V65" s="94">
         <v>2</v>
       </c>
     </row>
@@ -5514,34 +5523,34 @@
       <c r="A66" s="69">
         <v>34349</v>
       </c>
-      <c r="B66" s="76">
+      <c r="B66" s="118">
         <v>4</v>
       </c>
       <c r="C66" s="69">
         <v>57</v>
       </c>
-      <c r="D66" s="82">
+      <c r="D66" s="81">
         <v>76</v>
       </c>
       <c r="E66" s="69">
         <v>50</v>
       </c>
-      <c r="F66" s="82">
+      <c r="F66" s="81">
         <v>1.7</v>
       </c>
       <c r="G66" s="69">
         <v>85</v>
       </c>
-      <c r="H66" s="82" t="s">
+      <c r="H66" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="I66" s="82" t="s">
+      <c r="I66" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="J66" s="82" t="s">
+      <c r="J66" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="K66" s="82" t="s">
+      <c r="K66" s="81" t="s">
         <v>23</v>
       </c>
       <c r="L66" s="69">
@@ -5568,13 +5577,13 @@
       <c r="S66" s="69">
         <v>62</v>
       </c>
-      <c r="T66" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U66" s="101" t="s">
+      <c r="T66" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U66" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V66" s="97">
+      <c r="V66" s="96">
         <v>2</v>
       </c>
     </row>
@@ -5582,34 +5591,34 @@
       <c r="A67" s="69">
         <v>26293</v>
       </c>
-      <c r="B67" s="76">
+      <c r="B67" s="118">
         <v>4</v>
       </c>
       <c r="C67" s="69">
         <v>58</v>
       </c>
-      <c r="D67" s="82">
+      <c r="D67" s="81">
         <v>86</v>
       </c>
       <c r="E67" s="69">
         <v>36</v>
       </c>
-      <c r="F67" s="82">
+      <c r="F67" s="81">
         <v>2.7</v>
       </c>
       <c r="G67" s="69">
         <v>64</v>
       </c>
-      <c r="H67" s="82">
+      <c r="H67" s="81">
         <v>42</v>
       </c>
-      <c r="I67" s="82">
+      <c r="I67" s="81">
         <v>28.6</v>
       </c>
-      <c r="J67" s="82">
+      <c r="J67" s="81">
         <v>22.2</v>
       </c>
-      <c r="K67" s="82">
+      <c r="K67" s="81">
         <v>19.399999999999999</v>
       </c>
       <c r="L67" s="69">
@@ -5636,13 +5645,13 @@
       <c r="S67" s="70">
         <v>46</v>
       </c>
-      <c r="T67" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U67" s="101" t="s">
+      <c r="T67" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U67" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V67" s="106">
+      <c r="V67" s="105">
         <v>3</v>
       </c>
     </row>
@@ -5650,34 +5659,34 @@
       <c r="A68" s="70">
         <v>8344</v>
       </c>
-      <c r="B68" s="76">
+      <c r="B68" s="118">
         <v>5</v>
       </c>
       <c r="C68" s="70">
         <v>61</v>
       </c>
-      <c r="D68" s="83">
+      <c r="D68" s="82">
         <v>105</v>
       </c>
       <c r="E68" s="70">
         <v>45</v>
       </c>
-      <c r="F68" s="83">
+      <c r="F68" s="82">
         <v>2.1</v>
       </c>
       <c r="G68" s="69">
         <v>77</v>
       </c>
-      <c r="H68" s="82">
+      <c r="H68" s="81">
         <v>14.5</v>
       </c>
-      <c r="I68" s="82">
+      <c r="I68" s="81">
         <v>14.8</v>
       </c>
-      <c r="J68" s="82">
+      <c r="J68" s="81">
         <v>12</v>
       </c>
-      <c r="K68" s="82">
+      <c r="K68" s="81">
         <v>12</v>
       </c>
       <c r="L68" s="69">
@@ -5704,13 +5713,13 @@
       <c r="S68" s="69">
         <v>72</v>
       </c>
-      <c r="T68" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U68" s="101" t="s">
+      <c r="T68" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U68" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V68" s="97">
+      <c r="V68" s="96">
         <v>2</v>
       </c>
     </row>
@@ -5718,34 +5727,34 @@
       <c r="A69" s="70">
         <v>32712</v>
       </c>
-      <c r="B69" s="77">
+      <c r="B69" s="119">
         <v>2</v>
       </c>
       <c r="C69" s="70">
         <v>58</v>
       </c>
-      <c r="D69" s="83">
+      <c r="D69" s="82">
         <v>116</v>
       </c>
       <c r="E69" s="70">
         <v>49</v>
       </c>
-      <c r="F69" s="83">
+      <c r="F69" s="82">
         <v>1.2</v>
       </c>
       <c r="G69" s="70">
         <v>70</v>
       </c>
-      <c r="H69" s="83">
+      <c r="H69" s="82">
         <v>8</v>
       </c>
-      <c r="I69" s="83">
+      <c r="I69" s="82">
         <v>15</v>
       </c>
-      <c r="J69" s="83">
+      <c r="J69" s="82">
         <v>7.2</v>
       </c>
-      <c r="K69" s="83">
+      <c r="K69" s="82">
         <v>5.5</v>
       </c>
       <c r="L69" s="70">
@@ -5772,13 +5781,13 @@
       <c r="S69" s="70">
         <v>120</v>
       </c>
-      <c r="T69" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U69" s="101" t="s">
+      <c r="T69" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U69" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V69" s="97">
+      <c r="V69" s="96">
         <v>2</v>
       </c>
     </row>
@@ -5786,34 +5795,34 @@
       <c r="A70" s="70">
         <v>8443</v>
       </c>
-      <c r="B70" s="77">
+      <c r="B70" s="119">
         <v>5</v>
       </c>
       <c r="C70" s="70">
         <v>74</v>
       </c>
-      <c r="D70" s="83">
+      <c r="D70" s="82">
         <v>89</v>
       </c>
       <c r="E70" s="70">
         <v>45</v>
       </c>
-      <c r="F70" s="83">
+      <c r="F70" s="82">
         <v>2</v>
       </c>
       <c r="G70" s="69">
         <v>58</v>
       </c>
-      <c r="H70" s="82">
+      <c r="H70" s="81">
         <v>38.200000000000003</v>
       </c>
-      <c r="I70" s="82">
+      <c r="I70" s="81">
         <v>53.8</v>
       </c>
-      <c r="J70" s="82">
+      <c r="J70" s="81">
         <v>8.1</v>
       </c>
-      <c r="K70" s="82">
+      <c r="K70" s="81">
         <v>6.8</v>
       </c>
       <c r="L70" s="70">
@@ -5840,13 +5849,13 @@
       <c r="S70" s="69">
         <v>106</v>
       </c>
-      <c r="T70" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U70" s="101" t="s">
+      <c r="T70" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U70" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V70" s="106">
+      <c r="V70" s="105">
         <v>2</v>
       </c>
     </row>
@@ -5854,34 +5863,34 @@
       <c r="A71" s="69">
         <v>255993</v>
       </c>
-      <c r="B71" s="76">
+      <c r="B71" s="118">
         <v>6</v>
       </c>
       <c r="C71" s="69">
         <v>77</v>
       </c>
-      <c r="D71" s="82">
+      <c r="D71" s="81">
         <v>120</v>
       </c>
       <c r="E71" s="69">
         <v>40</v>
       </c>
-      <c r="F71" s="82">
+      <c r="F71" s="81">
         <v>3.1</v>
       </c>
       <c r="G71" s="69">
         <v>59</v>
       </c>
-      <c r="H71" s="82">
+      <c r="H71" s="81">
         <v>11.9</v>
       </c>
-      <c r="I71" s="82">
+      <c r="I71" s="81">
         <v>17.399999999999999</v>
       </c>
-      <c r="J71" s="82" t="s">
+      <c r="J71" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="K71" s="82">
+      <c r="K71" s="81">
         <v>4.5</v>
       </c>
       <c r="L71" s="69">
@@ -5908,13 +5917,13 @@
       <c r="S71" s="69">
         <v>79</v>
       </c>
-      <c r="T71" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U71" s="101" t="s">
+      <c r="T71" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U71" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V71" s="97">
+      <c r="V71" s="96">
         <v>2</v>
       </c>
     </row>
@@ -5922,34 +5931,34 @@
       <c r="A72" s="70">
         <v>30010</v>
       </c>
-      <c r="B72" s="76">
+      <c r="B72" s="118">
         <v>4</v>
       </c>
       <c r="C72" s="70">
         <v>68</v>
       </c>
-      <c r="D72" s="83">
+      <c r="D72" s="82">
         <v>89</v>
       </c>
       <c r="E72" s="70">
         <v>42</v>
       </c>
-      <c r="F72" s="83">
+      <c r="F72" s="82">
         <v>3.4</v>
       </c>
       <c r="G72" s="70">
         <v>67</v>
       </c>
-      <c r="H72" s="82">
+      <c r="H72" s="81">
         <v>5.6</v>
       </c>
-      <c r="I72" s="83" t="s">
+      <c r="I72" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="J72" s="82">
+      <c r="J72" s="81">
         <v>7.3</v>
       </c>
-      <c r="K72" s="82">
+      <c r="K72" s="81">
         <v>6.1</v>
       </c>
       <c r="L72" s="70">
@@ -5976,13 +5985,13 @@
       <c r="S72" s="69">
         <v>113</v>
       </c>
-      <c r="T72" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U72" s="101" t="s">
+      <c r="T72" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U72" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V72" s="97">
+      <c r="V72" s="96">
         <v>2</v>
       </c>
     </row>
@@ -5990,34 +5999,34 @@
       <c r="A73" s="70">
         <v>12066</v>
       </c>
-      <c r="B73" s="77">
+      <c r="B73" s="119">
         <v>4</v>
       </c>
       <c r="C73" s="70">
         <v>60</v>
       </c>
-      <c r="D73" s="83">
+      <c r="D73" s="82">
         <v>88</v>
       </c>
       <c r="E73" s="70">
         <v>47</v>
       </c>
-      <c r="F73" s="83">
+      <c r="F73" s="82">
         <v>2</v>
       </c>
       <c r="G73" s="69">
         <v>63</v>
       </c>
-      <c r="H73" s="83">
+      <c r="H73" s="82">
         <v>18</v>
       </c>
-      <c r="I73" s="83">
+      <c r="I73" s="82">
         <v>19.399999999999999</v>
       </c>
-      <c r="J73" s="82">
+      <c r="J73" s="81">
         <v>11.4</v>
       </c>
-      <c r="K73" s="83">
+      <c r="K73" s="82">
         <v>9.4</v>
       </c>
       <c r="L73" s="70">
@@ -6044,13 +6053,13 @@
       <c r="S73" s="70">
         <v>89</v>
       </c>
-      <c r="T73" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U73" s="101" t="s">
+      <c r="T73" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U73" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V73" s="106">
+      <c r="V73" s="105">
         <v>3</v>
       </c>
     </row>
@@ -6058,34 +6067,34 @@
       <c r="A74" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="B74" s="71">
+      <c r="B74" s="83">
         <v>4</v>
       </c>
       <c r="C74" s="71">
         <v>61</v>
       </c>
-      <c r="D74" s="84">
+      <c r="D74" s="83">
         <v>94</v>
       </c>
       <c r="E74" s="71">
         <v>39</v>
       </c>
-      <c r="F74" s="84">
+      <c r="F74" s="83">
         <v>3.4</v>
       </c>
       <c r="G74" s="71">
         <v>78</v>
       </c>
-      <c r="H74" s="84">
+      <c r="H74" s="83">
         <v>12.6</v>
       </c>
-      <c r="I74" s="84">
+      <c r="I74" s="83">
         <v>15.9</v>
       </c>
-      <c r="J74" s="84">
+      <c r="J74" s="83">
         <v>7.6</v>
       </c>
-      <c r="K74" s="84">
+      <c r="K74" s="83">
         <v>6.1</v>
       </c>
       <c r="L74" s="71">
@@ -6112,13 +6121,13 @@
       <c r="S74" s="71">
         <v>56</v>
       </c>
-      <c r="T74" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U74" s="101" t="s">
+      <c r="T74" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U74" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V74" s="107">
+      <c r="V74" s="106">
         <v>2</v>
       </c>
     </row>
@@ -6126,34 +6135,34 @@
       <c r="A75" s="66">
         <v>12254</v>
       </c>
-      <c r="B75" s="72">
+      <c r="B75" s="80">
         <v>1</v>
       </c>
       <c r="C75" s="66">
         <v>41</v>
       </c>
-      <c r="D75" s="79">
+      <c r="D75" s="78">
         <v>81</v>
       </c>
       <c r="E75" s="66">
         <v>49</v>
       </c>
-      <c r="F75" s="79">
-        <v>2</v>
-      </c>
-      <c r="G75" s="88">
+      <c r="F75" s="78">
+        <v>2</v>
+      </c>
+      <c r="G75" s="87">
         <v>84</v>
       </c>
-      <c r="H75" s="79" t="s">
+      <c r="H75" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="I75" s="79" t="s">
+      <c r="I75" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="J75" s="81" t="s">
+      <c r="J75" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="K75" s="79" t="s">
+      <c r="K75" s="78" t="s">
         <v>44</v>
       </c>
       <c r="L75" s="72">
@@ -6180,13 +6189,13 @@
       <c r="S75" s="66">
         <v>156</v>
       </c>
-      <c r="T75" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U75" s="101" t="s">
+      <c r="T75" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U75" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V75" s="97">
+      <c r="V75" s="96">
         <v>3</v>
       </c>
     </row>
@@ -6194,34 +6203,34 @@
       <c r="A76" s="69">
         <v>343491</v>
       </c>
-      <c r="B76" s="76">
+      <c r="B76" s="118">
         <v>4</v>
       </c>
       <c r="C76" s="69">
         <v>57</v>
       </c>
-      <c r="D76" s="82">
+      <c r="D76" s="81">
         <v>76</v>
       </c>
       <c r="E76" s="69">
         <v>50</v>
       </c>
-      <c r="F76" s="82">
+      <c r="F76" s="81">
         <v>1.7</v>
       </c>
       <c r="G76" s="69">
         <v>88</v>
       </c>
-      <c r="H76" s="82" t="s">
+      <c r="H76" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="I76" s="82" t="s">
+      <c r="I76" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="J76" s="82" t="s">
+      <c r="J76" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="K76" s="82" t="s">
+      <c r="K76" s="81" t="s">
         <v>23</v>
       </c>
       <c r="L76" s="69">
@@ -6248,13 +6257,13 @@
       <c r="S76" s="69">
         <v>62</v>
       </c>
-      <c r="T76" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U76" s="101" t="s">
+      <c r="T76" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U76" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V76" s="107">
+      <c r="V76" s="106">
         <v>2</v>
       </c>
     </row>
@@ -6262,34 +6271,34 @@
       <c r="A77" s="69">
         <v>262931</v>
       </c>
-      <c r="B77" s="76">
+      <c r="B77" s="118">
         <v>3</v>
       </c>
       <c r="C77" s="69">
         <v>58</v>
       </c>
-      <c r="D77" s="82">
+      <c r="D77" s="81">
         <v>86</v>
       </c>
       <c r="E77" s="69">
         <v>36</v>
       </c>
-      <c r="F77" s="82">
+      <c r="F77" s="81">
         <v>2.7</v>
       </c>
       <c r="G77" s="69">
         <v>63</v>
       </c>
-      <c r="H77" s="82">
+      <c r="H77" s="81">
         <v>42</v>
       </c>
-      <c r="I77" s="82">
+      <c r="I77" s="81">
         <v>28.6</v>
       </c>
-      <c r="J77" s="82">
+      <c r="J77" s="81">
         <v>22.2</v>
       </c>
-      <c r="K77" s="82">
+      <c r="K77" s="81">
         <v>19.399999999999999</v>
       </c>
       <c r="L77" s="69">
@@ -6316,13 +6325,13 @@
       <c r="S77" s="70">
         <v>46</v>
       </c>
-      <c r="T77" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U77" s="101" t="s">
+      <c r="T77" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U77" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V77" s="107">
+      <c r="V77" s="106">
         <v>2</v>
       </c>
     </row>
@@ -6330,34 +6339,34 @@
       <c r="A78" s="70">
         <v>83441</v>
       </c>
-      <c r="B78" s="76">
+      <c r="B78" s="118">
         <v>5</v>
       </c>
       <c r="C78" s="70">
         <v>61</v>
       </c>
-      <c r="D78" s="83">
+      <c r="D78" s="82">
         <v>105</v>
       </c>
       <c r="E78" s="70">
         <v>45</v>
       </c>
-      <c r="F78" s="83">
+      <c r="F78" s="82">
         <v>2.1</v>
       </c>
       <c r="G78" s="69">
         <v>76</v>
       </c>
-      <c r="H78" s="82">
+      <c r="H78" s="81">
         <v>14.5</v>
       </c>
-      <c r="I78" s="82">
+      <c r="I78" s="81">
         <v>14.8</v>
       </c>
-      <c r="J78" s="82">
+      <c r="J78" s="81">
         <v>12</v>
       </c>
-      <c r="K78" s="82">
+      <c r="K78" s="81">
         <v>12</v>
       </c>
       <c r="L78" s="69">
@@ -6384,13 +6393,13 @@
       <c r="S78" s="69">
         <v>72</v>
       </c>
-      <c r="T78" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U78" s="101" t="s">
+      <c r="T78" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U78" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V78" s="107">
+      <c r="V78" s="106">
         <v>2</v>
       </c>
     </row>
@@ -6398,34 +6407,34 @@
       <c r="A79" s="70">
         <v>327121</v>
       </c>
-      <c r="B79" s="77">
+      <c r="B79" s="119">
         <v>2</v>
       </c>
       <c r="C79" s="70">
         <v>58</v>
       </c>
-      <c r="D79" s="83">
+      <c r="D79" s="82">
         <v>116</v>
       </c>
       <c r="E79" s="70">
         <v>49</v>
       </c>
-      <c r="F79" s="83">
+      <c r="F79" s="82">
         <v>1.2</v>
       </c>
       <c r="G79" s="70">
         <v>70</v>
       </c>
-      <c r="H79" s="83">
+      <c r="H79" s="82">
         <v>8</v>
       </c>
-      <c r="I79" s="83">
+      <c r="I79" s="82">
         <v>15</v>
       </c>
-      <c r="J79" s="83">
+      <c r="J79" s="82">
         <v>7.2</v>
       </c>
-      <c r="K79" s="83">
+      <c r="K79" s="82">
         <v>5.5</v>
       </c>
       <c r="L79" s="70">
@@ -6452,13 +6461,13 @@
       <c r="S79" s="70">
         <v>120</v>
       </c>
-      <c r="T79" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U79" s="101" t="s">
+      <c r="T79" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U79" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V79" s="107">
+      <c r="V79" s="106">
         <v>2</v>
       </c>
     </row>
@@ -6466,34 +6475,34 @@
       <c r="A80" s="70">
         <v>84431</v>
       </c>
-      <c r="B80" s="77">
+      <c r="B80" s="119">
         <v>5</v>
       </c>
       <c r="C80" s="70">
         <v>74</v>
       </c>
-      <c r="D80" s="83">
+      <c r="D80" s="82">
         <v>89</v>
       </c>
       <c r="E80" s="70">
         <v>45</v>
       </c>
-      <c r="F80" s="83">
+      <c r="F80" s="82">
         <v>2</v>
       </c>
       <c r="G80" s="69">
         <v>57</v>
       </c>
-      <c r="H80" s="82">
+      <c r="H80" s="81">
         <v>38.200000000000003</v>
       </c>
-      <c r="I80" s="82">
+      <c r="I80" s="81">
         <v>53.8</v>
       </c>
-      <c r="J80" s="82">
+      <c r="J80" s="81">
         <v>8.1</v>
       </c>
-      <c r="K80" s="82">
+      <c r="K80" s="81">
         <v>6.8</v>
       </c>
       <c r="L80" s="70">
@@ -6520,13 +6529,13 @@
       <c r="S80" s="69">
         <v>106</v>
       </c>
-      <c r="T80" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U80" s="101" t="s">
+      <c r="T80" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U80" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V80" s="107">
+      <c r="V80" s="106">
         <v>2</v>
       </c>
     </row>
@@ -6534,34 +6543,34 @@
       <c r="A81" s="69">
         <v>2559931</v>
       </c>
-      <c r="B81" s="76">
+      <c r="B81" s="118">
         <v>6</v>
       </c>
       <c r="C81" s="69">
         <v>77</v>
       </c>
-      <c r="D81" s="82">
+      <c r="D81" s="81">
         <v>120</v>
       </c>
       <c r="E81" s="69">
         <v>40</v>
       </c>
-      <c r="F81" s="82">
+      <c r="F81" s="81">
         <v>3.1</v>
       </c>
       <c r="G81" s="69">
         <v>58</v>
       </c>
-      <c r="H81" s="82">
+      <c r="H81" s="81">
         <v>11.9</v>
       </c>
-      <c r="I81" s="82">
+      <c r="I81" s="81">
         <v>17.399999999999999</v>
       </c>
-      <c r="J81" s="82" t="s">
+      <c r="J81" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="K81" s="82">
+      <c r="K81" s="81">
         <v>4.5</v>
       </c>
       <c r="L81" s="69">
@@ -6588,13 +6597,13 @@
       <c r="S81" s="69">
         <v>78</v>
       </c>
-      <c r="T81" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U81" s="101" t="s">
+      <c r="T81" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U81" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V81" s="107">
+      <c r="V81" s="106">
         <v>2</v>
       </c>
     </row>
@@ -6602,34 +6611,34 @@
       <c r="A82" s="70">
         <v>300101</v>
       </c>
-      <c r="B82" s="76">
+      <c r="B82" s="118">
         <v>4</v>
       </c>
       <c r="C82" s="70">
         <v>68</v>
       </c>
-      <c r="D82" s="83">
+      <c r="D82" s="82">
         <v>89</v>
       </c>
       <c r="E82" s="70">
         <v>42</v>
       </c>
-      <c r="F82" s="83">
+      <c r="F82" s="82">
         <v>3.4</v>
       </c>
       <c r="G82" s="70">
         <v>66</v>
       </c>
-      <c r="H82" s="82">
+      <c r="H82" s="81">
         <v>5.6</v>
       </c>
-      <c r="I82" s="83" t="s">
+      <c r="I82" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="J82" s="82">
+      <c r="J82" s="81">
         <v>7.3</v>
       </c>
-      <c r="K82" s="82">
+      <c r="K82" s="81">
         <v>6.1</v>
       </c>
       <c r="L82" s="70">
@@ -6656,13 +6665,13 @@
       <c r="S82" s="69">
         <v>112</v>
       </c>
-      <c r="T82" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U82" s="101" t="s">
+      <c r="T82" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U82" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V82" s="107">
+      <c r="V82" s="106">
         <v>2</v>
       </c>
     </row>
@@ -6670,34 +6679,34 @@
       <c r="A83" s="70">
         <v>120661</v>
       </c>
-      <c r="B83" s="77">
+      <c r="B83" s="119">
         <v>4</v>
       </c>
       <c r="C83" s="70">
         <v>60</v>
       </c>
-      <c r="D83" s="83">
+      <c r="D83" s="82">
         <v>88</v>
       </c>
       <c r="E83" s="70">
         <v>47</v>
       </c>
-      <c r="F83" s="83">
+      <c r="F83" s="82">
         <v>2</v>
       </c>
       <c r="G83" s="69">
         <v>62</v>
       </c>
-      <c r="H83" s="83">
+      <c r="H83" s="82">
         <v>18</v>
       </c>
-      <c r="I83" s="83">
+      <c r="I83" s="82">
         <v>19.399999999999999</v>
       </c>
-      <c r="J83" s="82">
+      <c r="J83" s="81">
         <v>11.4</v>
       </c>
-      <c r="K83" s="83">
+      <c r="K83" s="82">
         <v>9.4</v>
       </c>
       <c r="L83" s="70">
@@ -6724,13 +6733,13 @@
       <c r="S83" s="70">
         <v>89</v>
       </c>
-      <c r="T83" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U83" s="101" t="s">
+      <c r="T83" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U83" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V83" s="107">
+      <c r="V83" s="106">
         <v>2</v>
       </c>
     </row>
@@ -6738,34 +6747,34 @@
       <c r="A84" s="71" t="s">
         <v>80</v>
       </c>
-      <c r="B84" s="71">
+      <c r="B84" s="83">
         <v>4</v>
       </c>
       <c r="C84" s="71">
         <v>61</v>
       </c>
-      <c r="D84" s="84">
+      <c r="D84" s="83">
         <v>94</v>
       </c>
       <c r="E84" s="71">
         <v>39</v>
       </c>
-      <c r="F84" s="84">
+      <c r="F84" s="83">
         <v>3.4</v>
       </c>
       <c r="G84" s="71">
         <v>77</v>
       </c>
-      <c r="H84" s="84">
+      <c r="H84" s="83">
         <v>12.6</v>
       </c>
-      <c r="I84" s="84">
+      <c r="I84" s="83">
         <v>15.9</v>
       </c>
-      <c r="J84" s="84">
+      <c r="J84" s="83">
         <v>7.6</v>
       </c>
-      <c r="K84" s="84">
+      <c r="K84" s="83">
         <v>6.1</v>
       </c>
       <c r="L84" s="71">
@@ -6792,13 +6801,13 @@
       <c r="S84" s="71">
         <v>55</v>
       </c>
-      <c r="T84" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U84" s="101" t="s">
+      <c r="T84" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U84" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V84" s="107">
+      <c r="V84" s="106">
         <v>2</v>
       </c>
     </row>
@@ -6806,34 +6815,34 @@
       <c r="A85" s="66">
         <v>122541</v>
       </c>
-      <c r="B85" s="72">
+      <c r="B85" s="80">
         <v>1</v>
       </c>
       <c r="C85" s="66">
         <v>40</v>
       </c>
-      <c r="D85" s="79">
+      <c r="D85" s="78">
         <v>81</v>
       </c>
       <c r="E85" s="66">
         <v>49</v>
       </c>
-      <c r="F85" s="79">
-        <v>2</v>
-      </c>
-      <c r="G85" s="88">
+      <c r="F85" s="78">
+        <v>2</v>
+      </c>
+      <c r="G85" s="87">
         <v>86</v>
       </c>
-      <c r="H85" s="79" t="s">
+      <c r="H85" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="I85" s="79" t="s">
+      <c r="I85" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="J85" s="81" t="s">
+      <c r="J85" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="K85" s="79" t="s">
+      <c r="K85" s="78" t="s">
         <v>44</v>
       </c>
       <c r="L85" s="72">
@@ -6860,13 +6869,13 @@
       <c r="S85" s="66">
         <v>158</v>
       </c>
-      <c r="T85" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U85" s="101" t="s">
+      <c r="T85" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U85" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V85" s="107">
+      <c r="V85" s="106">
         <v>2</v>
       </c>
     </row>
@@ -6874,34 +6883,34 @@
       <c r="A86" s="70">
         <v>87649</v>
       </c>
-      <c r="B86" s="77">
+      <c r="B86" s="119">
         <v>2</v>
       </c>
       <c r="C86" s="70">
         <v>56</v>
       </c>
-      <c r="D86" s="83">
+      <c r="D86" s="82">
         <v>90</v>
       </c>
       <c r="E86" s="70">
         <v>47</v>
       </c>
-      <c r="F86" s="83">
+      <c r="F86" s="82">
         <v>2.5</v>
       </c>
       <c r="G86" s="70">
         <v>84</v>
       </c>
-      <c r="H86" s="83">
+      <c r="H86" s="82">
         <v>23</v>
       </c>
-      <c r="I86" s="83">
+      <c r="I86" s="82">
         <v>33</v>
       </c>
-      <c r="J86" s="83">
+      <c r="J86" s="82">
         <v>7.7</v>
       </c>
-      <c r="K86" s="83">
+      <c r="K86" s="82">
         <v>6.3</v>
       </c>
       <c r="L86" s="70">
@@ -6928,13 +6937,13 @@
       <c r="S86" s="70">
         <v>110</v>
       </c>
-      <c r="T86" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U86" s="101" t="s">
+      <c r="T86" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U86" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V86" s="107">
+      <c r="V86" s="106">
         <v>2</v>
       </c>
     </row>
@@ -6942,34 +6951,34 @@
       <c r="A87" s="66">
         <v>18883</v>
       </c>
-      <c r="B87" s="66">
+      <c r="B87" s="78">
         <v>4</v>
       </c>
       <c r="C87" s="66">
         <v>63</v>
       </c>
-      <c r="D87" s="79">
+      <c r="D87" s="78">
         <v>88</v>
       </c>
       <c r="E87" s="66">
         <v>37</v>
       </c>
-      <c r="F87" s="79">
+      <c r="F87" s="78">
         <v>2.5</v>
       </c>
       <c r="G87" s="66">
         <v>61</v>
       </c>
-      <c r="H87" s="79">
+      <c r="H87" s="78">
         <v>14.2</v>
       </c>
-      <c r="I87" s="79">
+      <c r="I87" s="78">
         <v>25.2</v>
       </c>
-      <c r="J87" s="79">
+      <c r="J87" s="78">
         <v>6.8</v>
       </c>
-      <c r="K87" s="79">
+      <c r="K87" s="78">
         <v>4.7</v>
       </c>
       <c r="L87" s="66">
@@ -6996,13 +7005,13 @@
       <c r="S87" s="66">
         <v>105</v>
       </c>
-      <c r="T87" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U87" s="101" t="s">
+      <c r="T87" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U87" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V87" s="107">
+      <c r="V87" s="106">
         <v>2</v>
       </c>
     </row>
@@ -7010,34 +7019,34 @@
       <c r="A88" s="66">
         <v>22791</v>
       </c>
-      <c r="B88" s="66">
+      <c r="B88" s="78">
         <v>3</v>
       </c>
       <c r="C88" s="66">
         <v>52</v>
       </c>
-      <c r="D88" s="79">
+      <c r="D88" s="78">
         <v>82.8</v>
       </c>
       <c r="E88" s="66">
         <v>42</v>
       </c>
-      <c r="F88" s="79">
+      <c r="F88" s="78">
         <v>2.62</v>
       </c>
       <c r="G88" s="66">
         <v>67</v>
       </c>
-      <c r="H88" s="79">
+      <c r="H88" s="78">
         <v>31</v>
       </c>
-      <c r="I88" s="79">
+      <c r="I88" s="78">
         <v>37.200000000000003</v>
       </c>
-      <c r="J88" s="79">
+      <c r="J88" s="78">
         <v>7.1</v>
       </c>
-      <c r="K88" s="79">
+      <c r="K88" s="78">
         <v>5.6</v>
       </c>
       <c r="L88" s="66">
@@ -7064,13 +7073,13 @@
       <c r="S88" s="66">
         <v>86</v>
       </c>
-      <c r="T88" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U88" s="101" t="s">
+      <c r="T88" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U88" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V88" s="107">
+      <c r="V88" s="106">
         <v>3</v>
       </c>
     </row>
@@ -7078,34 +7087,34 @@
       <c r="A89" s="68">
         <v>18241</v>
       </c>
-      <c r="B89" s="75">
+      <c r="B89" s="117">
         <v>6</v>
       </c>
       <c r="C89" s="68">
         <v>78</v>
       </c>
-      <c r="D89" s="80">
+      <c r="D89" s="79">
         <v>129</v>
       </c>
       <c r="E89" s="68">
         <v>30</v>
       </c>
-      <c r="F89" s="80">
+      <c r="F89" s="79">
         <v>5.0999999999999996</v>
       </c>
       <c r="G89" s="73">
         <v>30</v>
       </c>
-      <c r="H89" s="79">
+      <c r="H89" s="78">
         <v>14.2</v>
       </c>
-      <c r="I89" s="79">
+      <c r="I89" s="78">
         <v>23</v>
       </c>
-      <c r="J89" s="79">
+      <c r="J89" s="78">
         <v>4.4000000000000004</v>
       </c>
-      <c r="K89" s="79">
+      <c r="K89" s="78">
         <v>4.9000000000000004</v>
       </c>
       <c r="L89" s="68">
@@ -7132,13 +7141,13 @@
       <c r="S89" s="68">
         <v>79</v>
       </c>
-      <c r="T89" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U89" s="101" t="s">
+      <c r="T89" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U89" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V89" s="97">
+      <c r="V89" s="96">
         <v>1</v>
       </c>
     </row>
@@ -7146,34 +7155,34 @@
       <c r="A90" s="68">
         <v>19829</v>
       </c>
-      <c r="B90" s="75">
+      <c r="B90" s="117">
         <v>5</v>
       </c>
       <c r="C90" s="68">
         <v>68</v>
       </c>
-      <c r="D90" s="80">
+      <c r="D90" s="79">
         <v>69</v>
       </c>
       <c r="E90" s="68">
         <v>23</v>
       </c>
-      <c r="F90" s="80">
+      <c r="F90" s="79">
         <v>5.4</v>
       </c>
       <c r="G90" s="73">
         <v>78</v>
       </c>
-      <c r="H90" s="80">
+      <c r="H90" s="79">
         <v>75.400000000000006</v>
       </c>
-      <c r="I90" s="80">
+      <c r="I90" s="79">
         <v>39.5</v>
       </c>
-      <c r="J90" s="79">
+      <c r="J90" s="78">
         <v>5.5</v>
       </c>
-      <c r="K90" s="80">
+      <c r="K90" s="79">
         <v>4.2</v>
       </c>
       <c r="L90" s="68">
@@ -7200,13 +7209,13 @@
       <c r="S90" s="68">
         <v>34</v>
       </c>
-      <c r="T90" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U90" s="101" t="s">
+      <c r="T90" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U90" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V90" s="100">
+      <c r="V90" s="99">
         <v>2</v>
       </c>
     </row>
@@ -7214,34 +7223,34 @@
       <c r="A91" s="68">
         <v>5482</v>
       </c>
-      <c r="B91" s="75">
+      <c r="B91" s="117">
         <v>6</v>
       </c>
       <c r="C91" s="68">
         <v>72</v>
       </c>
-      <c r="D91" s="80">
+      <c r="D91" s="79">
         <v>84</v>
       </c>
       <c r="E91" s="68">
         <v>42</v>
       </c>
-      <c r="F91" s="80">
+      <c r="F91" s="79">
         <v>3</v>
       </c>
       <c r="G91" s="73">
         <v>77</v>
       </c>
-      <c r="H91" s="80">
+      <c r="H91" s="79">
         <v>70.900000000000006</v>
       </c>
-      <c r="I91" s="80">
+      <c r="I91" s="79">
         <v>42.3</v>
       </c>
-      <c r="J91" s="79">
+      <c r="J91" s="78">
         <v>6.2</v>
       </c>
-      <c r="K91" s="80">
+      <c r="K91" s="79">
         <v>3.1</v>
       </c>
       <c r="L91" s="68">
@@ -7268,19 +7277,19 @@
       <c r="S91" s="68">
         <v>48</v>
       </c>
-      <c r="T91" s="102" t="s">
-        <v>83</v>
-      </c>
-      <c r="U91" s="101" t="s">
+      <c r="T91" s="101" t="s">
+        <v>83</v>
+      </c>
+      <c r="U91" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V91" s="97"/>
+      <c r="V91" s="96"/>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="67">
+      <c r="B92" s="52">
         <v>3</v>
       </c>
       <c r="C92" s="67">
@@ -7295,7 +7304,7 @@
       <c r="F92" s="52">
         <v>4.8</v>
       </c>
-      <c r="G92" s="89">
+      <c r="G92" s="88">
         <v>64</v>
       </c>
       <c r="H92" s="52">
@@ -7334,13 +7343,13 @@
       <c r="S92" s="67">
         <v>34</v>
       </c>
-      <c r="T92" s="103" t="s">
-        <v>83</v>
-      </c>
-      <c r="U92" s="101" t="s">
+      <c r="T92" s="102" t="s">
+        <v>83</v>
+      </c>
+      <c r="U92" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V92" s="95">
+      <c r="V92" s="94">
         <v>1</v>
       </c>
     </row>
@@ -7348,7 +7357,7 @@
       <c r="A93" s="67">
         <v>358828</v>
       </c>
-      <c r="B93" s="67">
+      <c r="B93" s="52">
         <v>2</v>
       </c>
       <c r="C93" s="67">
@@ -7363,7 +7372,7 @@
       <c r="F93" s="52">
         <v>4</v>
       </c>
-      <c r="G93" s="89">
+      <c r="G93" s="88">
         <v>74</v>
       </c>
       <c r="H93" s="52">
@@ -7402,13 +7411,13 @@
       <c r="S93" s="67">
         <v>25</v>
       </c>
-      <c r="T93" s="103" t="s">
-        <v>83</v>
-      </c>
-      <c r="U93" s="101" t="s">
+      <c r="T93" s="102" t="s">
+        <v>83</v>
+      </c>
+      <c r="U93" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V93" s="95">
+      <c r="V93" s="94">
         <v>3</v>
       </c>
     </row>
@@ -7416,34 +7425,34 @@
       <c r="A94" s="66">
         <v>5997</v>
       </c>
-      <c r="B94" s="72">
+      <c r="B94" s="80">
         <v>4</v>
       </c>
       <c r="C94" s="66">
         <v>50</v>
       </c>
-      <c r="D94" s="79">
+      <c r="D94" s="78">
         <v>92</v>
       </c>
       <c r="E94" s="66">
         <v>29</v>
       </c>
-      <c r="F94" s="79">
+      <c r="F94" s="78">
         <v>4.0999999999999996</v>
       </c>
       <c r="G94" s="66">
         <v>25</v>
       </c>
-      <c r="H94" s="79">
+      <c r="H94" s="78">
         <v>22.6</v>
       </c>
-      <c r="I94" s="79">
+      <c r="I94" s="78">
         <v>22.4</v>
       </c>
-      <c r="J94" s="79">
+      <c r="J94" s="78">
         <v>5.8</v>
       </c>
-      <c r="K94" s="79">
+      <c r="K94" s="78">
         <v>5.5</v>
       </c>
       <c r="L94" s="66">
@@ -7470,13 +7479,13 @@
       <c r="S94" s="66">
         <v>22</v>
       </c>
-      <c r="T94" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U94" s="101" t="s">
+      <c r="T94" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U94" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V94" s="97">
+      <c r="V94" s="96">
         <v>2</v>
       </c>
     </row>
@@ -7484,37 +7493,37 @@
       <c r="A95" s="72">
         <v>382742</v>
       </c>
-      <c r="B95" s="72">
+      <c r="B95" s="80">
         <v>7</v>
       </c>
       <c r="C95" s="72">
         <v>84</v>
       </c>
-      <c r="D95" s="81">
+      <c r="D95" s="80">
         <v>65</v>
       </c>
       <c r="E95" s="72">
         <v>32</v>
       </c>
-      <c r="F95" s="81">
+      <c r="F95" s="80">
         <v>4</v>
       </c>
       <c r="G95" s="72">
         <v>61</v>
       </c>
-      <c r="H95" s="81">
+      <c r="H95" s="80">
         <v>7.2</v>
       </c>
-      <c r="I95" s="81">
+      <c r="I95" s="80">
         <v>23.3</v>
       </c>
-      <c r="J95" s="81">
+      <c r="J95" s="80">
         <v>11.4</v>
       </c>
-      <c r="K95" s="81">
+      <c r="K95" s="80">
         <v>8</v>
       </c>
-      <c r="L95" s="88">
+      <c r="L95" s="87">
         <v>84</v>
       </c>
       <c r="M95" s="59">
@@ -7523,10 +7532,10 @@
       <c r="N95" s="57">
         <v>6.42</v>
       </c>
-      <c r="O95" s="88">
+      <c r="O95" s="87">
         <v>766</v>
       </c>
-      <c r="P95" s="88">
+      <c r="P95" s="87">
         <v>383</v>
       </c>
       <c r="Q95" s="66">
@@ -7538,13 +7547,13 @@
       <c r="S95" s="66">
         <v>4</v>
       </c>
-      <c r="T95" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U95" s="101" t="s">
+      <c r="T95" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U95" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V95" s="97">
+      <c r="V95" s="96">
         <v>1</v>
       </c>
     </row>
@@ -7552,7 +7561,7 @@
       <c r="A96" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="B96" s="67">
+      <c r="B96" s="52">
         <v>2</v>
       </c>
       <c r="C96" s="67">
@@ -7582,7 +7591,7 @@
       <c r="K96" s="52">
         <v>4.0999999999999996</v>
       </c>
-      <c r="L96" s="89">
+      <c r="L96" s="88">
         <v>82</v>
       </c>
       <c r="M96" s="59">
@@ -7606,13 +7615,13 @@
       <c r="S96" s="67">
         <v>42</v>
       </c>
-      <c r="T96" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U96" s="101" t="s">
+      <c r="T96" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U96" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V96" s="95">
+      <c r="V96" s="94">
         <v>2</v>
       </c>
     </row>
@@ -7620,34 +7629,34 @@
       <c r="A97" s="68">
         <v>182411</v>
       </c>
-      <c r="B97" s="75">
+      <c r="B97" s="117">
         <v>6</v>
       </c>
       <c r="C97" s="68">
         <v>78</v>
       </c>
-      <c r="D97" s="80">
+      <c r="D97" s="79">
         <v>129</v>
       </c>
       <c r="E97" s="68">
         <v>30</v>
       </c>
-      <c r="F97" s="80">
+      <c r="F97" s="79">
         <v>5.0999999999999996</v>
       </c>
       <c r="G97" s="73">
         <v>29</v>
       </c>
-      <c r="H97" s="79">
+      <c r="H97" s="78">
         <v>14.2</v>
       </c>
-      <c r="I97" s="79">
+      <c r="I97" s="78">
         <v>23</v>
       </c>
-      <c r="J97" s="79">
+      <c r="J97" s="78">
         <v>4.4000000000000004</v>
       </c>
-      <c r="K97" s="79">
+      <c r="K97" s="78">
         <v>4.9000000000000004</v>
       </c>
       <c r="L97" s="68">
@@ -7674,13 +7683,13 @@
       <c r="S97" s="68">
         <v>79</v>
       </c>
-      <c r="T97" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U97" s="101" t="s">
+      <c r="T97" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U97" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V97" s="97">
+      <c r="V97" s="96">
         <v>1</v>
       </c>
     </row>
@@ -7688,34 +7697,34 @@
       <c r="A98" s="68">
         <v>198291</v>
       </c>
-      <c r="B98" s="75">
+      <c r="B98" s="117">
         <v>5</v>
       </c>
       <c r="C98" s="68">
         <v>68</v>
       </c>
-      <c r="D98" s="80">
+      <c r="D98" s="79">
         <v>69</v>
       </c>
       <c r="E98" s="68">
         <v>23</v>
       </c>
-      <c r="F98" s="80">
+      <c r="F98" s="79">
         <v>5.4</v>
       </c>
       <c r="G98" s="73">
         <v>77</v>
       </c>
-      <c r="H98" s="80">
+      <c r="H98" s="79">
         <v>75.400000000000006</v>
       </c>
-      <c r="I98" s="80">
+      <c r="I98" s="79">
         <v>39.5</v>
       </c>
-      <c r="J98" s="79">
+      <c r="J98" s="78">
         <v>5.5</v>
       </c>
-      <c r="K98" s="80">
+      <c r="K98" s="79">
         <v>4.2</v>
       </c>
       <c r="L98" s="68">
@@ -7742,13 +7751,13 @@
       <c r="S98" s="68">
         <v>34</v>
       </c>
-      <c r="T98" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U98" s="101" t="s">
+      <c r="T98" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U98" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V98" s="100">
+      <c r="V98" s="99">
         <v>2</v>
       </c>
     </row>
@@ -7756,34 +7765,34 @@
       <c r="A99" s="68">
         <v>548211</v>
       </c>
-      <c r="B99" s="75">
+      <c r="B99" s="117">
         <v>6</v>
       </c>
       <c r="C99" s="68">
         <v>72</v>
       </c>
-      <c r="D99" s="80">
+      <c r="D99" s="79">
         <v>84</v>
       </c>
       <c r="E99" s="68">
         <v>42</v>
       </c>
-      <c r="F99" s="80">
+      <c r="F99" s="79">
         <v>3</v>
       </c>
       <c r="G99" s="73">
         <v>76</v>
       </c>
-      <c r="H99" s="80">
+      <c r="H99" s="79">
         <v>70.900000000000006</v>
       </c>
-      <c r="I99" s="80">
+      <c r="I99" s="79">
         <v>42.3</v>
       </c>
-      <c r="J99" s="79">
+      <c r="J99" s="78">
         <v>6.2</v>
       </c>
-      <c r="K99" s="80">
+      <c r="K99" s="79">
         <v>3.1</v>
       </c>
       <c r="L99" s="68">
@@ -7810,19 +7819,19 @@
       <c r="S99" s="68">
         <v>48</v>
       </c>
-      <c r="T99" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U99" s="101" t="s">
+      <c r="T99" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U99" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V99" s="97"/>
+      <c r="V99" s="96"/>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A100" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="B100" s="67">
+      <c r="B100" s="52">
         <v>3</v>
       </c>
       <c r="C100" s="67">
@@ -7837,7 +7846,7 @@
       <c r="F100" s="52">
         <v>4.8</v>
       </c>
-      <c r="G100" s="89">
+      <c r="G100" s="88">
         <v>64</v>
       </c>
       <c r="H100" s="52">
@@ -7876,13 +7885,13 @@
       <c r="S100" s="67">
         <v>34</v>
       </c>
-      <c r="T100" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U100" s="101" t="s">
+      <c r="T100" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U100" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V100" s="95">
+      <c r="V100" s="94">
         <v>1</v>
       </c>
     </row>
@@ -7890,7 +7899,7 @@
       <c r="A101" s="67">
         <v>3588281</v>
       </c>
-      <c r="B101" s="67">
+      <c r="B101" s="52">
         <v>2</v>
       </c>
       <c r="C101" s="67">
@@ -7905,7 +7914,7 @@
       <c r="F101" s="52">
         <v>4.07</v>
       </c>
-      <c r="G101" s="89">
+      <c r="G101" s="88">
         <v>73</v>
       </c>
       <c r="H101" s="52">
@@ -7944,13 +7953,13 @@
       <c r="S101" s="67">
         <v>25</v>
       </c>
-      <c r="T101" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U101" s="101" t="s">
+      <c r="T101" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U101" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V101" s="95">
+      <c r="V101" s="94">
         <v>3</v>
       </c>
     </row>
@@ -7958,34 +7967,34 @@
       <c r="A102" s="66">
         <v>59971</v>
       </c>
-      <c r="B102" s="72">
+      <c r="B102" s="80">
         <v>4</v>
       </c>
       <c r="C102" s="66">
         <v>50</v>
       </c>
-      <c r="D102" s="79">
+      <c r="D102" s="78">
         <v>92</v>
       </c>
       <c r="E102" s="66">
         <v>29</v>
       </c>
-      <c r="F102" s="79">
+      <c r="F102" s="78">
         <v>4.0999999999999996</v>
       </c>
       <c r="G102" s="66">
         <v>24</v>
       </c>
-      <c r="H102" s="79">
+      <c r="H102" s="78">
         <v>22.6</v>
       </c>
-      <c r="I102" s="79">
+      <c r="I102" s="78">
         <v>22.4</v>
       </c>
-      <c r="J102" s="79">
+      <c r="J102" s="78">
         <v>5.8</v>
       </c>
-      <c r="K102" s="79">
+      <c r="K102" s="78">
         <v>5.5</v>
       </c>
       <c r="L102" s="66">
@@ -8012,13 +8021,13 @@
       <c r="S102" s="66">
         <v>22</v>
       </c>
-      <c r="T102" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U102" s="101" t="s">
+      <c r="T102" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U102" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V102" s="97">
+      <c r="V102" s="96">
         <v>2</v>
       </c>
     </row>
@@ -8026,37 +8035,37 @@
       <c r="A103" s="72">
         <v>3827421</v>
       </c>
-      <c r="B103" s="72">
+      <c r="B103" s="80">
         <v>7</v>
       </c>
       <c r="C103" s="72">
         <v>84</v>
       </c>
-      <c r="D103" s="81">
+      <c r="D103" s="80">
         <v>65</v>
       </c>
       <c r="E103" s="72">
         <v>32</v>
       </c>
-      <c r="F103" s="81">
+      <c r="F103" s="80">
         <v>4</v>
       </c>
       <c r="G103" s="72">
         <v>60</v>
       </c>
-      <c r="H103" s="81">
+      <c r="H103" s="80">
         <v>7.2</v>
       </c>
-      <c r="I103" s="81">
+      <c r="I103" s="80">
         <v>23.3</v>
       </c>
-      <c r="J103" s="81">
+      <c r="J103" s="80">
         <v>11.4</v>
       </c>
-      <c r="K103" s="81">
+      <c r="K103" s="80">
         <v>8</v>
       </c>
-      <c r="L103" s="88">
+      <c r="L103" s="87">
         <v>84</v>
       </c>
       <c r="M103" s="59">
@@ -8065,10 +8074,10 @@
       <c r="N103" s="57">
         <v>6.42</v>
       </c>
-      <c r="O103" s="88">
+      <c r="O103" s="87">
         <v>766</v>
       </c>
-      <c r="P103" s="88">
+      <c r="P103" s="87">
         <v>383</v>
       </c>
       <c r="Q103" s="66">
@@ -8080,13 +8089,13 @@
       <c r="S103" s="66">
         <v>4</v>
       </c>
-      <c r="T103" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U103" s="101" t="s">
+      <c r="T103" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U103" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V103" s="97">
+      <c r="V103" s="96">
         <v>1</v>
       </c>
     </row>
@@ -8094,7 +8103,7 @@
       <c r="A104" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="B104" s="67">
+      <c r="B104" s="52">
         <v>2</v>
       </c>
       <c r="C104" s="67">
@@ -8124,7 +8133,7 @@
       <c r="K104" s="52">
         <v>4.0999999999999996</v>
       </c>
-      <c r="L104" s="89">
+      <c r="L104" s="88">
         <v>82</v>
       </c>
       <c r="M104" s="59">
@@ -8148,13 +8157,13 @@
       <c r="S104" s="67">
         <v>42</v>
       </c>
-      <c r="T104" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U104" s="101" t="s">
+      <c r="T104" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U104" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V104" s="95">
+      <c r="V104" s="94">
         <v>2</v>
       </c>
     </row>
@@ -8162,34 +8171,34 @@
       <c r="A105" s="66">
         <v>15836</v>
       </c>
-      <c r="B105" s="66">
+      <c r="B105" s="78">
         <v>3</v>
       </c>
       <c r="C105" s="66">
         <v>53</v>
       </c>
-      <c r="D105" s="79">
+      <c r="D105" s="78">
         <v>98</v>
       </c>
       <c r="E105" s="66">
         <v>39</v>
       </c>
-      <c r="F105" s="79">
+      <c r="F105" s="78">
         <v>4.5999999999999996</v>
       </c>
       <c r="G105" s="66">
         <v>91</v>
       </c>
-      <c r="H105" s="79">
+      <c r="H105" s="78">
         <v>24</v>
       </c>
-      <c r="I105" s="79">
+      <c r="I105" s="78">
         <v>23</v>
       </c>
-      <c r="J105" s="79">
+      <c r="J105" s="78">
         <v>11</v>
       </c>
-      <c r="K105" s="79">
+      <c r="K105" s="78">
         <v>10.4</v>
       </c>
       <c r="L105" s="66">
@@ -8216,13 +8225,13 @@
       <c r="S105" s="66">
         <v>90</v>
       </c>
-      <c r="T105" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U105" s="101" t="s">
+      <c r="T105" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U105" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V105" s="97">
+      <c r="V105" s="96">
         <v>2</v>
       </c>
     </row>
@@ -8230,34 +8239,34 @@
       <c r="A106" s="66">
         <v>49478</v>
       </c>
-      <c r="B106" s="66">
+      <c r="B106" s="78">
         <v>5</v>
       </c>
       <c r="C106" s="66">
         <v>75</v>
       </c>
-      <c r="D106" s="79">
+      <c r="D106" s="78">
         <v>95</v>
       </c>
       <c r="E106" s="66">
         <v>21</v>
       </c>
-      <c r="F106" s="79">
+      <c r="F106" s="78">
         <v>2.7</v>
       </c>
       <c r="G106" s="66">
         <v>46</v>
       </c>
-      <c r="H106" s="79">
+      <c r="H106" s="78">
         <v>3.9</v>
       </c>
-      <c r="I106" s="79">
+      <c r="I106" s="78">
         <v>9.9</v>
       </c>
-      <c r="J106" s="79">
+      <c r="J106" s="78">
         <v>4.3</v>
       </c>
-      <c r="K106" s="79">
+      <c r="K106" s="78">
         <v>2.6</v>
       </c>
       <c r="L106" s="66">
@@ -8284,13 +8293,13 @@
       <c r="S106" s="66">
         <v>66</v>
       </c>
-      <c r="T106" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U106" s="101" t="s">
+      <c r="T106" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U106" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V106" s="97">
+      <c r="V106" s="96">
         <v>2</v>
       </c>
     </row>
@@ -8298,34 +8307,34 @@
       <c r="A107" s="66">
         <v>445117</v>
       </c>
-      <c r="B107" s="66">
+      <c r="B107" s="78">
         <v>2</v>
       </c>
       <c r="C107" s="66">
         <v>42</v>
       </c>
-      <c r="D107" s="79">
+      <c r="D107" s="78">
         <v>33</v>
       </c>
       <c r="E107" s="66">
         <v>18</v>
       </c>
-      <c r="F107" s="79">
+      <c r="F107" s="78">
         <v>2.4500000000000002</v>
       </c>
       <c r="G107" s="66">
         <v>73</v>
       </c>
-      <c r="H107" s="79">
+      <c r="H107" s="78">
         <v>10.199999999999999</v>
       </c>
-      <c r="I107" s="79">
+      <c r="I107" s="78">
         <v>14.8</v>
       </c>
-      <c r="J107" s="79">
+      <c r="J107" s="78">
         <v>4.3</v>
       </c>
-      <c r="K107" s="79">
+      <c r="K107" s="78">
         <v>3.8</v>
       </c>
       <c r="L107" s="66">
@@ -8352,13 +8361,13 @@
       <c r="S107" s="66">
         <v>11</v>
       </c>
-      <c r="T107" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U107" s="101" t="s">
+      <c r="T107" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U107" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V107" s="97">
+      <c r="V107" s="96">
         <v>1</v>
       </c>
     </row>
@@ -8366,34 +8375,34 @@
       <c r="A108" s="66">
         <v>158142</v>
       </c>
-      <c r="B108" s="66">
+      <c r="B108" s="78">
         <v>7</v>
       </c>
       <c r="C108" s="66">
         <v>82</v>
       </c>
-      <c r="D108" s="79">
+      <c r="D108" s="78">
         <v>92</v>
       </c>
       <c r="E108" s="66">
         <v>40</v>
       </c>
-      <c r="F108" s="79">
+      <c r="F108" s="78">
         <v>5.0999999999999996</v>
       </c>
       <c r="G108" s="66">
         <v>44</v>
       </c>
-      <c r="H108" s="79">
+      <c r="H108" s="78">
         <v>17.3</v>
       </c>
-      <c r="I108" s="79">
+      <c r="I108" s="78">
         <v>30.2</v>
       </c>
-      <c r="J108" s="79">
+      <c r="J108" s="78">
         <v>8.8000000000000007</v>
       </c>
-      <c r="K108" s="79">
+      <c r="K108" s="78">
         <v>6.7</v>
       </c>
       <c r="L108" s="66">
@@ -8420,13 +8429,13 @@
       <c r="S108" s="66">
         <v>15</v>
       </c>
-      <c r="T108" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U108" s="101" t="s">
+      <c r="T108" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U108" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V108" s="97">
+      <c r="V108" s="96">
         <v>1</v>
       </c>
     </row>
@@ -8434,34 +8443,34 @@
       <c r="A109" s="69">
         <v>22876</v>
       </c>
-      <c r="B109" s="76">
+      <c r="B109" s="118">
         <v>5</v>
       </c>
       <c r="C109" s="69">
         <v>84</v>
       </c>
-      <c r="D109" s="82">
+      <c r="D109" s="81">
         <v>107</v>
       </c>
       <c r="E109" s="69">
         <v>34</v>
       </c>
-      <c r="F109" s="82">
+      <c r="F109" s="81">
         <v>6.1</v>
       </c>
       <c r="G109" s="69">
         <v>65</v>
       </c>
-      <c r="H109" s="82" t="s">
+      <c r="H109" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="I109" s="82" t="s">
+      <c r="I109" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="J109" s="92">
+      <c r="J109" s="91">
         <v>10.6</v>
       </c>
-      <c r="K109" s="82" t="s">
+      <c r="K109" s="81" t="s">
         <v>27</v>
       </c>
       <c r="L109" s="69">
@@ -8488,13 +8497,13 @@
       <c r="S109" s="69">
         <v>21</v>
       </c>
-      <c r="T109" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U109" s="101" t="s">
+      <c r="T109" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U109" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V109" s="106">
+      <c r="V109" s="105">
         <v>1</v>
       </c>
     </row>
@@ -8502,34 +8511,34 @@
       <c r="A110" s="66">
         <v>251623</v>
       </c>
-      <c r="B110" s="66">
+      <c r="B110" s="78">
         <v>5</v>
       </c>
       <c r="C110" s="66">
         <v>54</v>
       </c>
-      <c r="D110" s="79">
+      <c r="D110" s="78">
         <v>96</v>
       </c>
       <c r="E110" s="66">
         <v>35</v>
       </c>
-      <c r="F110" s="79">
+      <c r="F110" s="78">
         <v>6</v>
       </c>
       <c r="G110" s="66">
         <v>79</v>
       </c>
-      <c r="H110" s="79">
+      <c r="H110" s="78">
         <v>15.3</v>
       </c>
-      <c r="I110" s="79">
+      <c r="I110" s="78">
         <v>24</v>
       </c>
-      <c r="J110" s="79">
+      <c r="J110" s="78">
         <v>3.7</v>
       </c>
-      <c r="K110" s="79">
+      <c r="K110" s="78">
         <v>2.8</v>
       </c>
       <c r="L110" s="66">
@@ -8556,13 +8565,13 @@
       <c r="S110" s="66">
         <v>21</v>
       </c>
-      <c r="T110" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U110" s="101" t="s">
+      <c r="T110" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U110" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V110" s="100">
+      <c r="V110" s="99">
         <v>1</v>
       </c>
     </row>
@@ -8570,7 +8579,7 @@
       <c r="A111" s="67">
         <v>13971</v>
       </c>
-      <c r="B111" s="67">
+      <c r="B111" s="52">
         <v>7</v>
       </c>
       <c r="C111" s="67">
@@ -8624,13 +8633,13 @@
       <c r="S111" s="67">
         <v>35</v>
       </c>
-      <c r="T111" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U111" s="101" t="s">
+      <c r="T111" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U111" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V111" s="95">
+      <c r="V111" s="94">
         <v>1</v>
       </c>
     </row>
@@ -8638,7 +8647,7 @@
       <c r="A112" s="67">
         <v>114738</v>
       </c>
-      <c r="B112" s="67">
+      <c r="B112" s="52">
         <v>6</v>
       </c>
       <c r="C112" s="67">
@@ -8692,13 +8701,13 @@
       <c r="S112" s="67">
         <v>24</v>
       </c>
-      <c r="T112" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U112" s="101" t="s">
+      <c r="T112" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U112" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V112" s="95">
+      <c r="V112" s="94">
         <v>2</v>
       </c>
     </row>
@@ -8706,34 +8715,34 @@
       <c r="A113" s="66">
         <v>24125</v>
       </c>
-      <c r="B113" s="72">
+      <c r="B113" s="80">
         <v>4</v>
       </c>
       <c r="C113" s="66">
         <v>64</v>
       </c>
-      <c r="D113" s="79">
+      <c r="D113" s="78">
         <v>104</v>
       </c>
       <c r="E113" s="66">
         <v>27</v>
       </c>
-      <c r="F113" s="79">
+      <c r="F113" s="78">
         <v>6</v>
       </c>
-      <c r="G113" s="88">
+      <c r="G113" s="87">
         <v>63</v>
       </c>
-      <c r="H113" s="79" t="s">
+      <c r="H113" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="I113" s="79">
+      <c r="I113" s="78">
         <v>15.3</v>
       </c>
-      <c r="J113" s="79" t="s">
+      <c r="J113" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="K113" s="79">
+      <c r="K113" s="78">
         <v>5.5</v>
       </c>
       <c r="L113" s="66">
@@ -8760,13 +8769,13 @@
       <c r="S113" s="66">
         <v>6</v>
       </c>
-      <c r="T113" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U113" s="101" t="s">
+      <c r="T113" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U113" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V113" s="97">
+      <c r="V113" s="96">
         <v>2</v>
       </c>
     </row>
@@ -8774,34 +8783,34 @@
       <c r="A114" s="68">
         <v>20765</v>
       </c>
-      <c r="B114" s="72">
+      <c r="B114" s="80">
         <v>6</v>
       </c>
       <c r="C114" s="68">
         <v>57</v>
       </c>
-      <c r="D114" s="80">
+      <c r="D114" s="79">
         <v>59</v>
       </c>
       <c r="E114" s="68">
         <v>11</v>
       </c>
-      <c r="F114" s="80">
+      <c r="F114" s="79">
         <v>9</v>
       </c>
       <c r="G114" s="73">
         <v>29</v>
       </c>
-      <c r="H114" s="79" t="s">
+      <c r="H114" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="I114" s="79">
+      <c r="I114" s="78">
         <v>13.9</v>
       </c>
-      <c r="J114" s="80" t="s">
+      <c r="J114" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="K114" s="80" t="s">
+      <c r="K114" s="79" t="s">
         <v>50</v>
       </c>
       <c r="L114" s="68">
@@ -8816,7 +8825,7 @@
       <c r="O114" s="66">
         <v>481</v>
       </c>
-      <c r="P114" s="93">
+      <c r="P114" s="92">
         <v>315</v>
       </c>
       <c r="Q114" s="73">
@@ -8828,13 +8837,13 @@
       <c r="S114" s="66">
         <v>12</v>
       </c>
-      <c r="T114" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U114" s="101" t="s">
+      <c r="T114" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U114" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V114" s="97">
+      <c r="V114" s="96">
         <v>2</v>
       </c>
     </row>
@@ -8842,7 +8851,7 @@
       <c r="A115" s="68">
         <v>44051</v>
       </c>
-      <c r="B115" s="75">
+      <c r="B115" s="117">
         <v>3</v>
       </c>
       <c r="C115" s="68">
@@ -8860,16 +8869,16 @@
       <c r="G115" s="73">
         <v>94</v>
       </c>
-      <c r="H115" s="79">
+      <c r="H115" s="78">
         <v>21.7</v>
       </c>
-      <c r="I115" s="79">
+      <c r="I115" s="78">
         <v>64.400000000000006</v>
       </c>
-      <c r="J115" s="79">
+      <c r="J115" s="78">
         <v>6</v>
       </c>
-      <c r="K115" s="79">
+      <c r="K115" s="78">
         <v>5</v>
       </c>
       <c r="L115" s="68">
@@ -8896,13 +8905,13 @@
       <c r="S115" s="68">
         <v>16</v>
       </c>
-      <c r="T115" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U115" s="101" t="s">
+      <c r="T115" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U115" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V115" s="100">
+      <c r="V115" s="99">
         <v>1</v>
       </c>
     </row>
@@ -8910,37 +8919,37 @@
       <c r="A116" s="72">
         <v>243533</v>
       </c>
-      <c r="B116" s="72">
+      <c r="B116" s="80">
         <v>6</v>
       </c>
       <c r="C116" s="72">
         <v>69</v>
       </c>
-      <c r="D116" s="81">
+      <c r="D116" s="80">
         <v>132</v>
       </c>
       <c r="E116" s="72">
         <v>61</v>
       </c>
-      <c r="F116" s="81">
+      <c r="F116" s="80">
         <v>7</v>
       </c>
       <c r="G116" s="72">
         <v>65</v>
       </c>
-      <c r="H116" s="81" t="s">
+      <c r="H116" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="I116" s="81" t="s">
+      <c r="I116" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="J116" s="81" t="s">
+      <c r="J116" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="K116" s="81" t="s">
+      <c r="K116" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="L116" s="88">
+      <c r="L116" s="87">
         <v>81</v>
       </c>
       <c r="M116" s="59" t="s">
@@ -8964,13 +8973,13 @@
       <c r="S116" s="73">
         <v>10</v>
       </c>
-      <c r="T116" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U116" s="101" t="s">
+      <c r="T116" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U116" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V116" s="97">
+      <c r="V116" s="96">
         <v>1</v>
       </c>
     </row>
@@ -8978,34 +8987,34 @@
       <c r="A117" s="66">
         <v>1546</v>
       </c>
-      <c r="B117" s="66">
+      <c r="B117" s="78">
         <v>5</v>
       </c>
       <c r="C117" s="66">
         <v>65</v>
       </c>
-      <c r="D117" s="79">
+      <c r="D117" s="78">
         <v>67</v>
       </c>
       <c r="E117" s="66">
         <v>19</v>
       </c>
-      <c r="F117" s="79">
+      <c r="F117" s="78">
         <v>12</v>
       </c>
       <c r="G117" s="66">
         <v>41</v>
       </c>
-      <c r="H117" s="79">
+      <c r="H117" s="78">
         <v>14</v>
       </c>
-      <c r="I117" s="79">
+      <c r="I117" s="78">
         <v>7</v>
       </c>
-      <c r="J117" s="79">
+      <c r="J117" s="78">
         <v>12.5</v>
       </c>
-      <c r="K117" s="79">
+      <c r="K117" s="78">
         <v>12.5</v>
       </c>
       <c r="L117" s="73">
@@ -9032,13 +9041,13 @@
       <c r="S117" s="66">
         <v>14</v>
       </c>
-      <c r="T117" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U117" s="101" t="s">
+      <c r="T117" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U117" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V117" s="100">
+      <c r="V117" s="99">
         <v>2</v>
       </c>
     </row>
@@ -9046,34 +9055,34 @@
       <c r="A118" s="73">
         <v>12236</v>
       </c>
-      <c r="B118" s="73">
+      <c r="B118" s="84">
         <v>2</v>
       </c>
       <c r="C118" s="73">
         <v>55</v>
       </c>
-      <c r="D118" s="85">
+      <c r="D118" s="84">
         <v>78</v>
       </c>
       <c r="E118" s="73">
         <v>27</v>
       </c>
-      <c r="F118" s="85">
+      <c r="F118" s="84">
         <v>9</v>
       </c>
       <c r="G118" s="73">
         <v>9</v>
       </c>
-      <c r="H118" s="85">
+      <c r="H118" s="84">
         <v>5.5</v>
       </c>
-      <c r="I118" s="85">
+      <c r="I118" s="84">
         <v>9.8000000000000007</v>
       </c>
-      <c r="J118" s="85">
+      <c r="J118" s="84">
         <v>5.0999999999999996</v>
       </c>
-      <c r="K118" s="85">
+      <c r="K118" s="84">
         <v>4.5999999999999996</v>
       </c>
       <c r="L118" s="73">
@@ -9100,13 +9109,13 @@
       <c r="S118" s="73">
         <v>13</v>
       </c>
-      <c r="T118" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U118" s="101" t="s">
+      <c r="T118" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U118" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V118" s="108">
+      <c r="V118" s="107">
         <v>1</v>
       </c>
     </row>
@@ -9114,34 +9123,34 @@
       <c r="A119" s="66">
         <v>237868</v>
       </c>
-      <c r="B119" s="66">
+      <c r="B119" s="78">
         <v>4</v>
       </c>
       <c r="C119" s="66">
         <v>64</v>
       </c>
-      <c r="D119" s="79">
+      <c r="D119" s="78">
         <v>92</v>
       </c>
       <c r="E119" s="66">
         <v>31</v>
       </c>
-      <c r="F119" s="79">
+      <c r="F119" s="78">
         <v>6</v>
       </c>
       <c r="G119" s="66">
         <v>58</v>
       </c>
-      <c r="H119" s="79">
+      <c r="H119" s="78">
         <v>18.600000000000001</v>
       </c>
-      <c r="I119" s="79">
+      <c r="I119" s="78">
         <v>27.6</v>
       </c>
-      <c r="J119" s="79">
+      <c r="J119" s="78">
         <v>7.9</v>
       </c>
-      <c r="K119" s="79">
+      <c r="K119" s="78">
         <v>6.5</v>
       </c>
       <c r="L119" s="73">
@@ -9168,13 +9177,13 @@
       <c r="S119" s="66">
         <v>27</v>
       </c>
-      <c r="T119" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="U119" s="101" t="s">
+      <c r="T119" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="U119" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V119" s="100">
+      <c r="V119" s="99">
         <v>1</v>
       </c>
     </row>
@@ -9182,7 +9191,7 @@
       <c r="A120" s="67">
         <v>382276</v>
       </c>
-      <c r="B120" s="67">
+      <c r="B120" s="52">
         <v>4</v>
       </c>
       <c r="C120" s="67">
@@ -9212,7 +9221,7 @@
       <c r="K120" s="52">
         <v>21.4</v>
       </c>
-      <c r="L120" s="89">
+      <c r="L120" s="88">
         <v>95</v>
       </c>
       <c r="M120" s="59">
@@ -9236,13 +9245,13 @@
       <c r="S120" s="67">
         <v>9</v>
       </c>
-      <c r="T120" s="103" t="s">
-        <v>83</v>
-      </c>
-      <c r="U120" s="101" t="s">
+      <c r="T120" s="102" t="s">
+        <v>83</v>
+      </c>
+      <c r="U120" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V120" s="95">
+      <c r="V120" s="94">
         <v>1</v>
       </c>
     </row>
@@ -9250,7 +9259,7 @@
       <c r="A121" s="67">
         <v>112</v>
       </c>
-      <c r="B121" s="67">
+      <c r="B121" s="52">
         <v>2</v>
       </c>
       <c r="C121" s="67">
@@ -9280,7 +9289,7 @@
       <c r="K121" s="52">
         <v>4.7</v>
       </c>
-      <c r="L121" s="89">
+      <c r="L121" s="88">
         <v>62</v>
       </c>
       <c r="M121" s="59">
@@ -9304,13 +9313,13 @@
       <c r="S121" s="67">
         <v>16</v>
       </c>
-      <c r="T121" s="103" t="s">
-        <v>83</v>
-      </c>
-      <c r="U121" s="101" t="s">
+      <c r="T121" s="102" t="s">
+        <v>83</v>
+      </c>
+      <c r="U121" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V121" s="95">
+      <c r="V121" s="94">
         <v>1</v>
       </c>
     </row>
@@ -9318,34 +9327,34 @@
       <c r="A122" s="69">
         <v>228761</v>
       </c>
-      <c r="B122" s="76">
+      <c r="B122" s="118">
         <v>5</v>
       </c>
       <c r="C122" s="69">
         <v>84</v>
       </c>
-      <c r="D122" s="82">
+      <c r="D122" s="81">
         <v>106</v>
       </c>
       <c r="E122" s="69">
         <v>34</v>
       </c>
-      <c r="F122" s="82">
+      <c r="F122" s="81">
         <v>6.1</v>
       </c>
       <c r="G122" s="69">
         <v>65</v>
       </c>
-      <c r="H122" s="82" t="s">
+      <c r="H122" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="I122" s="82" t="s">
+      <c r="I122" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="J122" s="92">
+      <c r="J122" s="91">
         <v>10.6</v>
       </c>
-      <c r="K122" s="82" t="s">
+      <c r="K122" s="81" t="s">
         <v>27</v>
       </c>
       <c r="L122" s="69">
@@ -9372,13 +9381,13 @@
       <c r="S122" s="69">
         <v>21</v>
       </c>
-      <c r="T122" s="103" t="s">
-        <v>83</v>
-      </c>
-      <c r="U122" s="101" t="s">
+      <c r="T122" s="102" t="s">
+        <v>83</v>
+      </c>
+      <c r="U122" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V122" s="106">
+      <c r="V122" s="105">
         <v>2</v>
       </c>
     </row>
@@ -9386,34 +9395,34 @@
       <c r="A123" s="66">
         <v>2516231</v>
       </c>
-      <c r="B123" s="66">
+      <c r="B123" s="78">
         <v>5</v>
       </c>
       <c r="C123" s="66">
         <v>54</v>
       </c>
-      <c r="D123" s="79">
+      <c r="D123" s="78">
         <v>96</v>
       </c>
       <c r="E123" s="66">
         <v>35</v>
       </c>
-      <c r="F123" s="79">
+      <c r="F123" s="78">
         <v>6</v>
       </c>
       <c r="G123" s="66">
         <v>79</v>
       </c>
-      <c r="H123" s="79">
+      <c r="H123" s="78">
         <v>15.3</v>
       </c>
-      <c r="I123" s="79">
+      <c r="I123" s="78">
         <v>24</v>
       </c>
-      <c r="J123" s="79">
+      <c r="J123" s="78">
         <v>3.7</v>
       </c>
-      <c r="K123" s="79">
+      <c r="K123" s="78">
         <v>2.8</v>
       </c>
       <c r="L123" s="66">
@@ -9440,13 +9449,13 @@
       <c r="S123" s="66">
         <v>21</v>
       </c>
-      <c r="T123" s="103" t="s">
-        <v>83</v>
-      </c>
-      <c r="U123" s="101" t="s">
+      <c r="T123" s="102" t="s">
+        <v>83</v>
+      </c>
+      <c r="U123" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V123" s="100">
+      <c r="V123" s="99">
         <v>2</v>
       </c>
     </row>
@@ -9454,7 +9463,7 @@
       <c r="A124" s="67">
         <v>139711</v>
       </c>
-      <c r="B124" s="67">
+      <c r="B124" s="52">
         <v>7</v>
       </c>
       <c r="C124" s="67">
@@ -9508,13 +9517,13 @@
       <c r="S124" s="67">
         <v>35</v>
       </c>
-      <c r="T124" s="103" t="s">
-        <v>83</v>
-      </c>
-      <c r="U124" s="101" t="s">
+      <c r="T124" s="102" t="s">
+        <v>83</v>
+      </c>
+      <c r="U124" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V124" s="95">
+      <c r="V124" s="94">
         <v>2</v>
       </c>
     </row>
@@ -9522,7 +9531,7 @@
       <c r="A125" s="67">
         <v>1147381</v>
       </c>
-      <c r="B125" s="67">
+      <c r="B125" s="52">
         <v>6</v>
       </c>
       <c r="C125" s="67">
@@ -9576,13 +9585,13 @@
       <c r="S125" s="67">
         <v>24</v>
       </c>
-      <c r="T125" s="103" t="s">
-        <v>83</v>
-      </c>
-      <c r="U125" s="101" t="s">
+      <c r="T125" s="102" t="s">
+        <v>83</v>
+      </c>
+      <c r="U125" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V125" s="95">
+      <c r="V125" s="94">
         <v>2</v>
       </c>
     </row>
@@ -9590,34 +9599,34 @@
       <c r="A126" s="66">
         <v>241251</v>
       </c>
-      <c r="B126" s="72">
+      <c r="B126" s="80">
         <v>4</v>
       </c>
       <c r="C126" s="66">
         <v>64</v>
       </c>
-      <c r="D126" s="79">
+      <c r="D126" s="78">
         <v>104</v>
       </c>
       <c r="E126" s="66">
         <v>27</v>
       </c>
-      <c r="F126" s="79">
+      <c r="F126" s="78">
         <v>6</v>
       </c>
-      <c r="G126" s="88">
+      <c r="G126" s="87">
         <v>63</v>
       </c>
-      <c r="H126" s="79" t="s">
+      <c r="H126" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="I126" s="79">
+      <c r="I126" s="78">
         <v>15.3</v>
       </c>
-      <c r="J126" s="79" t="s">
+      <c r="J126" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="K126" s="79">
+      <c r="K126" s="78">
         <v>5.5</v>
       </c>
       <c r="L126" s="66">
@@ -9644,13 +9653,13 @@
       <c r="S126" s="66">
         <v>6</v>
       </c>
-      <c r="T126" s="103" t="s">
-        <v>83</v>
-      </c>
-      <c r="U126" s="101" t="s">
+      <c r="T126" s="102" t="s">
+        <v>83</v>
+      </c>
+      <c r="U126" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V126" s="95">
+      <c r="V126" s="94">
         <v>1</v>
       </c>
     </row>
@@ -9658,34 +9667,34 @@
       <c r="A127" s="68">
         <v>207651</v>
       </c>
-      <c r="B127" s="72">
+      <c r="B127" s="80">
         <v>6</v>
       </c>
       <c r="C127" s="68">
         <v>57</v>
       </c>
-      <c r="D127" s="80">
+      <c r="D127" s="79">
         <v>49</v>
       </c>
       <c r="E127" s="68">
         <v>11</v>
       </c>
-      <c r="F127" s="80">
+      <c r="F127" s="79">
         <v>9</v>
       </c>
       <c r="G127" s="73">
         <v>29</v>
       </c>
-      <c r="H127" s="79" t="s">
+      <c r="H127" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="I127" s="79">
+      <c r="I127" s="78">
         <v>13.9</v>
       </c>
-      <c r="J127" s="80" t="s">
+      <c r="J127" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="K127" s="80" t="s">
+      <c r="K127" s="79" t="s">
         <v>50</v>
       </c>
       <c r="L127" s="68">
@@ -9700,7 +9709,7 @@
       <c r="O127" s="66">
         <v>481</v>
       </c>
-      <c r="P127" s="93">
+      <c r="P127" s="92">
         <v>315</v>
       </c>
       <c r="Q127" s="73">
@@ -9712,13 +9721,13 @@
       <c r="S127" s="66">
         <v>12</v>
       </c>
-      <c r="T127" s="103" t="s">
-        <v>83</v>
-      </c>
-      <c r="U127" s="101" t="s">
+      <c r="T127" s="102" t="s">
+        <v>83</v>
+      </c>
+      <c r="U127" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V127" s="95">
+      <c r="V127" s="94">
         <v>1</v>
       </c>
     </row>
@@ -9726,7 +9735,7 @@
       <c r="A128" s="68">
         <v>440511</v>
       </c>
-      <c r="B128" s="75">
+      <c r="B128" s="117">
         <v>3</v>
       </c>
       <c r="C128" s="68">
@@ -9744,16 +9753,16 @@
       <c r="G128" s="73">
         <v>94</v>
       </c>
-      <c r="H128" s="79">
+      <c r="H128" s="78">
         <v>21.7</v>
       </c>
-      <c r="I128" s="79">
+      <c r="I128" s="78">
         <v>64.400000000000006</v>
       </c>
-      <c r="J128" s="79">
+      <c r="J128" s="78">
         <v>6</v>
       </c>
-      <c r="K128" s="79">
+      <c r="K128" s="78">
         <v>5</v>
       </c>
       <c r="L128" s="68">
@@ -9780,13 +9789,13 @@
       <c r="S128" s="68">
         <v>16</v>
       </c>
-      <c r="T128" s="103" t="s">
-        <v>83</v>
-      </c>
-      <c r="U128" s="101" t="s">
+      <c r="T128" s="102" t="s">
+        <v>83</v>
+      </c>
+      <c r="U128" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V128" s="95">
+      <c r="V128" s="94">
         <v>1</v>
       </c>
     </row>
@@ -9794,37 +9803,37 @@
       <c r="A129" s="72">
         <v>2435331</v>
       </c>
-      <c r="B129" s="72">
+      <c r="B129" s="80">
         <v>6</v>
       </c>
       <c r="C129" s="72">
         <v>69</v>
       </c>
-      <c r="D129" s="81">
+      <c r="D129" s="80">
         <v>132</v>
       </c>
       <c r="E129" s="72">
         <v>61</v>
       </c>
-      <c r="F129" s="81">
+      <c r="F129" s="80">
         <v>7</v>
       </c>
       <c r="G129" s="72">
         <v>65</v>
       </c>
-      <c r="H129" s="81" t="s">
+      <c r="H129" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="I129" s="81" t="s">
+      <c r="I129" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="J129" s="81" t="s">
+      <c r="J129" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="K129" s="81" t="s">
+      <c r="K129" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="L129" s="88">
+      <c r="L129" s="87">
         <v>81</v>
       </c>
       <c r="M129" s="59" t="s">
@@ -9848,13 +9857,13 @@
       <c r="S129" s="73">
         <v>9</v>
       </c>
-      <c r="T129" s="103" t="s">
-        <v>83</v>
-      </c>
-      <c r="U129" s="101" t="s">
+      <c r="T129" s="102" t="s">
+        <v>83</v>
+      </c>
+      <c r="U129" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V129" s="95">
+      <c r="V129" s="94">
         <v>1</v>
       </c>
     </row>
@@ -9862,34 +9871,34 @@
       <c r="A130" s="66">
         <v>15461</v>
       </c>
-      <c r="B130" s="66">
+      <c r="B130" s="78">
         <v>5</v>
       </c>
       <c r="C130" s="66">
         <v>65</v>
       </c>
-      <c r="D130" s="79">
+      <c r="D130" s="78">
         <v>67</v>
       </c>
       <c r="E130" s="66">
         <v>19</v>
       </c>
-      <c r="F130" s="79">
+      <c r="F130" s="78">
         <v>12</v>
       </c>
       <c r="G130" s="66">
         <v>41</v>
       </c>
-      <c r="H130" s="79">
+      <c r="H130" s="78">
         <v>14</v>
       </c>
-      <c r="I130" s="79">
+      <c r="I130" s="78">
         <v>7</v>
       </c>
-      <c r="J130" s="79">
+      <c r="J130" s="78">
         <v>12.5</v>
       </c>
-      <c r="K130" s="79">
+      <c r="K130" s="78">
         <v>12.5</v>
       </c>
       <c r="L130" s="73">
@@ -9916,13 +9925,13 @@
       <c r="S130" s="66">
         <v>14</v>
       </c>
-      <c r="T130" s="103" t="s">
-        <v>83</v>
-      </c>
-      <c r="U130" s="101" t="s">
+      <c r="T130" s="102" t="s">
+        <v>83</v>
+      </c>
+      <c r="U130" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V130" s="95">
+      <c r="V130" s="94">
         <v>1</v>
       </c>
     </row>
@@ -9930,34 +9939,34 @@
       <c r="A131" s="73">
         <v>122361</v>
       </c>
-      <c r="B131" s="73">
+      <c r="B131" s="84">
         <v>2</v>
       </c>
       <c r="C131" s="73">
         <v>55</v>
       </c>
-      <c r="D131" s="85">
+      <c r="D131" s="84">
         <v>78</v>
       </c>
       <c r="E131" s="73">
         <v>27</v>
       </c>
-      <c r="F131" s="85">
+      <c r="F131" s="84">
         <v>9</v>
       </c>
       <c r="G131" s="73">
         <v>9</v>
       </c>
-      <c r="H131" s="85">
+      <c r="H131" s="84">
         <v>5.5</v>
       </c>
-      <c r="I131" s="85">
+      <c r="I131" s="84">
         <v>9.8000000000000007</v>
       </c>
-      <c r="J131" s="85">
+      <c r="J131" s="84">
         <v>5.0999999999999996</v>
       </c>
-      <c r="K131" s="85">
+      <c r="K131" s="84">
         <v>4.5999999999999996</v>
       </c>
       <c r="L131" s="73">
@@ -9984,13 +9993,13 @@
       <c r="S131" s="73">
         <v>13</v>
       </c>
-      <c r="T131" s="103" t="s">
-        <v>83</v>
-      </c>
-      <c r="U131" s="101" t="s">
+      <c r="T131" s="102" t="s">
+        <v>83</v>
+      </c>
+      <c r="U131" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V131" s="95">
+      <c r="V131" s="94">
         <v>1</v>
       </c>
     </row>
@@ -9998,34 +10007,34 @@
       <c r="A132" s="66">
         <v>2378681</v>
       </c>
-      <c r="B132" s="66">
+      <c r="B132" s="78">
         <v>4</v>
       </c>
       <c r="C132" s="66">
         <v>64</v>
       </c>
-      <c r="D132" s="79">
+      <c r="D132" s="78">
         <v>89</v>
       </c>
       <c r="E132" s="66">
         <v>31</v>
       </c>
-      <c r="F132" s="79">
+      <c r="F132" s="78">
         <v>6</v>
       </c>
       <c r="G132" s="66">
         <v>58</v>
       </c>
-      <c r="H132" s="79">
+      <c r="H132" s="78">
         <v>18.600000000000001</v>
       </c>
-      <c r="I132" s="79">
+      <c r="I132" s="78">
         <v>27.6</v>
       </c>
-      <c r="J132" s="79">
+      <c r="J132" s="78">
         <v>7.9</v>
       </c>
-      <c r="K132" s="79">
+      <c r="K132" s="78">
         <v>6.5</v>
       </c>
       <c r="L132" s="73">
@@ -10052,13 +10061,13 @@
       <c r="S132" s="66">
         <v>27</v>
       </c>
-      <c r="T132" s="103" t="s">
-        <v>83</v>
-      </c>
-      <c r="U132" s="101" t="s">
+      <c r="T132" s="102" t="s">
+        <v>83</v>
+      </c>
+      <c r="U132" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V132" s="95">
+      <c r="V132" s="94">
         <v>2</v>
       </c>
     </row>
@@ -10066,7 +10075,7 @@
       <c r="A133" s="67">
         <v>3822761</v>
       </c>
-      <c r="B133" s="67">
+      <c r="B133" s="52">
         <v>4</v>
       </c>
       <c r="C133" s="67">
@@ -10096,7 +10105,7 @@
       <c r="K133" s="52">
         <v>21.4</v>
       </c>
-      <c r="L133" s="89">
+      <c r="L133" s="88">
         <v>95</v>
       </c>
       <c r="M133" s="59">
@@ -10120,13 +10129,13 @@
       <c r="S133" s="67">
         <v>9</v>
       </c>
-      <c r="T133" s="103" t="s">
-        <v>83</v>
-      </c>
-      <c r="U133" s="101" t="s">
+      <c r="T133" s="102" t="s">
+        <v>83</v>
+      </c>
+      <c r="U133" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V133" s="95">
+      <c r="V133" s="94">
         <v>1</v>
       </c>
     </row>
@@ -10134,7 +10143,7 @@
       <c r="A134" s="67">
         <v>113112</v>
       </c>
-      <c r="B134" s="67">
+      <c r="B134" s="52">
         <v>2</v>
       </c>
       <c r="C134" s="67">
@@ -10164,7 +10173,7 @@
       <c r="K134" s="52">
         <v>4.7</v>
       </c>
-      <c r="L134" s="89">
+      <c r="L134" s="88">
         <v>62</v>
       </c>
       <c r="M134" s="59">
@@ -10188,13 +10197,13 @@
       <c r="S134" s="67">
         <v>16</v>
       </c>
-      <c r="T134" s="103" t="s">
-        <v>83</v>
-      </c>
-      <c r="U134" s="101" t="s">
+      <c r="T134" s="102" t="s">
+        <v>83</v>
+      </c>
+      <c r="U134" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V134" s="95">
+      <c r="V134" s="94">
         <v>1</v>
       </c>
     </row>
@@ -10202,34 +10211,34 @@
       <c r="A135" s="66">
         <v>204079</v>
       </c>
-      <c r="B135" s="66">
+      <c r="B135" s="78">
         <v>6</v>
       </c>
       <c r="C135" s="66">
         <v>74</v>
       </c>
-      <c r="D135" s="79">
+      <c r="D135" s="78">
         <v>126</v>
       </c>
       <c r="E135" s="66">
         <v>50</v>
       </c>
-      <c r="F135" s="79">
+      <c r="F135" s="78">
         <v>6</v>
       </c>
       <c r="G135" s="66">
         <v>43</v>
       </c>
-      <c r="H135" s="79">
+      <c r="H135" s="78">
         <v>5.7</v>
       </c>
-      <c r="I135" s="79">
+      <c r="I135" s="78">
         <v>17.7</v>
       </c>
-      <c r="J135" s="79">
+      <c r="J135" s="78">
         <v>9.4</v>
       </c>
-      <c r="K135" s="79">
+      <c r="K135" s="78">
         <v>5</v>
       </c>
       <c r="L135" s="66">
@@ -10256,13 +10265,13 @@
       <c r="S135" s="66">
         <v>9</v>
       </c>
-      <c r="T135" s="103" t="s">
-        <v>83</v>
-      </c>
-      <c r="U135" s="101" t="s">
+      <c r="T135" s="102" t="s">
+        <v>83</v>
+      </c>
+      <c r="U135" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V135" s="97">
+      <c r="V135" s="96">
         <v>1</v>
       </c>
     </row>
@@ -10270,34 +10279,34 @@
       <c r="A136" s="66">
         <v>158777</v>
       </c>
-      <c r="B136" s="66">
+      <c r="B136" s="78">
         <v>7</v>
       </c>
       <c r="C136" s="66">
         <v>82</v>
       </c>
-      <c r="D136" s="79">
+      <c r="D136" s="78">
         <v>127</v>
       </c>
       <c r="E136" s="66">
         <v>42</v>
       </c>
-      <c r="F136" s="79">
+      <c r="F136" s="78">
         <v>7</v>
       </c>
       <c r="G136" s="66">
         <v>59</v>
       </c>
-      <c r="H136" s="79">
+      <c r="H136" s="78">
         <v>6.8</v>
       </c>
-      <c r="I136" s="79">
+      <c r="I136" s="78">
         <v>13</v>
       </c>
-      <c r="J136" s="79">
+      <c r="J136" s="78">
         <v>6.2</v>
       </c>
-      <c r="K136" s="79">
+      <c r="K136" s="78">
         <v>5</v>
       </c>
       <c r="L136" s="66">
@@ -10324,13 +10333,13 @@
       <c r="S136" s="66">
         <v>22</v>
       </c>
-      <c r="T136" s="103" t="s">
-        <v>83</v>
-      </c>
-      <c r="U136" s="101" t="s">
+      <c r="T136" s="102" t="s">
+        <v>83</v>
+      </c>
+      <c r="U136" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V136" s="95">
+      <c r="V136" s="94">
         <v>2</v>
       </c>
     </row>
@@ -10338,34 +10347,34 @@
       <c r="A137" s="66">
         <v>157951</v>
       </c>
-      <c r="B137" s="66">
+      <c r="B137" s="78">
         <v>5</v>
       </c>
       <c r="C137" s="66">
         <v>66</v>
       </c>
-      <c r="D137" s="79">
+      <c r="D137" s="78">
         <v>82</v>
       </c>
       <c r="E137" s="66">
         <v>34</v>
       </c>
-      <c r="F137" s="79">
+      <c r="F137" s="78">
         <v>6.7</v>
       </c>
       <c r="G137" s="66">
         <v>40</v>
       </c>
-      <c r="H137" s="79">
+      <c r="H137" s="78">
         <v>41</v>
       </c>
-      <c r="I137" s="79">
+      <c r="I137" s="78">
         <v>38</v>
       </c>
-      <c r="J137" s="79">
+      <c r="J137" s="78">
         <v>4.4000000000000004</v>
       </c>
-      <c r="K137" s="79">
+      <c r="K137" s="78">
         <v>3.4</v>
       </c>
       <c r="L137" s="66">
@@ -10392,13 +10401,13 @@
       <c r="S137" s="66">
         <v>33</v>
       </c>
-      <c r="T137" s="103" t="s">
-        <v>83</v>
-      </c>
-      <c r="U137" s="101" t="s">
+      <c r="T137" s="102" t="s">
+        <v>83</v>
+      </c>
+      <c r="U137" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="V137" s="95">
+      <c r="V137" s="94">
         <v>2</v>
       </c>
     </row>
@@ -10429,44 +10438,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="112" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="113" t="s">
+      <c r="C1" s="112" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
-      <c r="G1" s="113" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="115" t="s">
+      <c r="G1" s="112" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="111" t="s">
+      <c r="S1" s="110" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="114"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
+      <c r="A2" s="113"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
       <c r="D2" s="39" t="s">
         <v>6</v>
       </c>
@@ -10476,7 +10485,7 @@
       <c r="F2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="114"/>
+      <c r="G2" s="113"/>
       <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
@@ -10510,7 +10519,7 @@
       <c r="R2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="112"/>
+      <c r="S2" s="111"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
@@ -11127,44 +11136,44 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="115" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="114" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
-      <c r="G1" s="115" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="115" t="s">
+      <c r="G1" s="114" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="111" t="s">
+      <c r="S1" s="110" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
+      <c r="A2" s="114"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
       <c r="D2" s="39" t="s">
         <v>6</v>
       </c>
@@ -11174,7 +11183,7 @@
       <c r="F2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="115"/>
+      <c r="G2" s="114"/>
       <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
@@ -11208,7 +11217,7 @@
       <c r="R2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="112"/>
+      <c r="S2" s="111"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
@@ -11824,44 +11833,44 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="114" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
-      <c r="G1" s="115" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="115" t="s">
+      <c r="G1" s="114" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="111" t="s">
+      <c r="S1" s="110" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
+      <c r="A2" s="114"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
       <c r="D2" s="39" t="s">
         <v>6</v>
       </c>
@@ -11871,7 +11880,7 @@
       <c r="F2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="115"/>
+      <c r="G2" s="114"/>
       <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
@@ -11905,7 +11914,7 @@
       <c r="R2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="112"/>
+      <c r="S2" s="111"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
